--- a/data/hotels_by_city/Dallas/Dallas_shard_641.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_641.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="339">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,895 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r528134319-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>99375</t>
+  </si>
+  <si>
+    <t>528134319</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t>My first stay at a Red Roof In</t>
+  </si>
+  <si>
+    <t>The room was clean. I was just there one night so I did not have a chance to really see Dallas. This hotel was directly across the street from Wal-mart, and close to an eatery so I did not have to venture far to pick up necessities.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r524760876-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>524760876</t>
+  </si>
+  <si>
+    <t>09/15/2017</t>
+  </si>
+  <si>
+    <t>This is a decent hotel with great location</t>
+  </si>
+  <si>
+    <t>I have stayed here several times and it is a decent property.  Not five star but much better than most in this price range for sure.  There is a Dennys next door and Walmart a half block away.  The staff is great, Anrch went above and beyond to take care of me and fix my reservation.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r523259587-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>523259587</t>
+  </si>
+  <si>
+    <t>09/10/2017</t>
+  </si>
+  <si>
+    <t>We Hurricane Irma escapees! Solid hotel near everything</t>
+  </si>
+  <si>
+    <t>Solid Red Roof Inn.  Clean, secured parking and right across the street from Wal-Mart. Hotel is 15 minutes from downtown Dallas with a ton of resteraunts in the area. Nice pool but was closed for unknown reason. Enjoy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r466076910-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>466076910</t>
+  </si>
+  <si>
+    <t>03/10/2017</t>
+  </si>
+  <si>
+    <t>The staff is AMAZING!</t>
+  </si>
+  <si>
+    <t>The staff here is AMAZING! Such nice people! The rooms are clean and the price is definitely right. I like that it is gated and there is a security guard at night. Overall the staying at the Red Roof had been a great experience!</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r465370193-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>465370193</t>
+  </si>
+  <si>
+    <t>03/07/2017</t>
+  </si>
+  <si>
+    <t>Keep on driving!!</t>
+  </si>
+  <si>
+    <t>We stayed at this Red Roof Inn because it was in close proximity to friends we were meeting for dinner and because Red Roof is pet friendly.Just be advised if you have a dog you will be put in a sub par room! Stain on the bedspread and the door had visible damage, light coming in at the top and bottom of the door. It was dirty, obviously the laminate floor had not been wet mopped in a while. The beds were comfy but cleanliness of the spread and blanket was questionable. Toilet was loose at the base.Maybe if you don't have a pet you get a better room but I doubt it. Also had a security gate you opened with your key card to drive to your room. Kinda scary! We also had to call the desk twice due to neighbors playing loud music with booming bass. I would skip this place and find something better!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>We stayed at this Red Roof Inn because it was in close proximity to friends we were meeting for dinner and because Red Roof is pet friendly.Just be advised if you have a dog you will be put in a sub par room! Stain on the bedspread and the door had visible damage, light coming in at the top and bottom of the door. It was dirty, obviously the laminate floor had not been wet mopped in a while. The beds were comfy but cleanliness of the spread and blanket was questionable. Toilet was loose at the base.Maybe if you don't have a pet you get a better room but I doubt it. Also had a security gate you opened with your key card to drive to your room. Kinda scary! We also had to call the desk twice due to neighbors playing loud music with booming bass. I would skip this place and find something better!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r464607718-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>464607718</t>
+  </si>
+  <si>
+    <t>03/04/2017</t>
+  </si>
+  <si>
+    <t>Horrible!</t>
+  </si>
+  <si>
+    <t>I have stayed at different Red Roof Inns many different times and this is the first one I did not like and will never go to again. First off, when I called to reconfirm the lady was rude and did not know what she was talking about AND had me call a different number A WRONG NUMBER. The Lobby door was locked and the people at the front desk just looked at me like a was a idiot, and the. Would not let me use the card we Reserved with even though I had all of the required paperwork! The room was dirty, needed BETTER updating.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r436260456-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>436260456</t>
+  </si>
+  <si>
+    <t>11/10/2016</t>
+  </si>
+  <si>
+    <t>horrible maid service</t>
+  </si>
+  <si>
+    <t>I have been here for almost a year with my family, and the maid service is horrible. They should come twice a week and NEVER COME, so I am left with a pile of blankets and towels for two weeks. I asked nicely for them to over and over again and they never show.  They have only shown to change the towels and blankets a few times since I have been here. A lot of the rooms leak when it rains, the air works, but heat doesn't. There is only one working washing machine, and the vending machine hasn't worked in months .  They do have a small breakfast, not much to it but good enough for the kids. The weekly price is the best in the area, and is spacey  with two beds.  It is pretty quiet. No one bothers us. There are mostly business people and families that stay here. They do have a pool that usually stays clean in the summertime and the office people are nice. Internet was very slow, but it has improved . My only real complaint is with the maid service, otherwise not bad for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>I have been here for almost a year with my family, and the maid service is horrible. They should come twice a week and NEVER COME, so I am left with a pile of blankets and towels for two weeks. I asked nicely for them to over and over again and they never show.  They have only shown to change the towels and blankets a few times since I have been here. A lot of the rooms leak when it rains, the air works, but heat doesn't. There is only one working washing machine, and the vending machine hasn't worked in months .  They do have a small breakfast, not much to it but good enough for the kids. The weekly price is the best in the area, and is spacey  with two beds.  It is pretty quiet. No one bothers us. There are mostly business people and families that stay here. They do have a pool that usually stays clean in the summertime and the office people are nice. Internet was very slow, but it has improved . My only real complaint is with the maid service, otherwise not bad for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r415491144-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>415491144</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>good room, very helpful staff</t>
+  </si>
+  <si>
+    <t>1. room is good2. very helpful staff3. close to most of the places4. almost on the main roadReal good Value for moneyCheck in / check-out is fast Automated parking gates ,so vehicles are securewalmart ,denny's &amp; gas within 500 yards</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r405075315-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>405075315</t>
+  </si>
+  <si>
+    <t>08/13/2016</t>
+  </si>
+  <si>
+    <t>Stay away!!!</t>
+  </si>
+  <si>
+    <t>Upon checking I came to gate that seems to barely work and see huge warning signs of hiding your stuff and locking your car etc....The hotel grounds are dirty dog poop everywhere.   Get to the room, 242, to walk in to a room that smelled like pot.  Walls were covered in mold.    Pull the comforter back to check the bed (very important in hotels) sheets looked used wrinkled etc.   Then lifted the mattress to find a used condom and nasty stains on the bed skirt!   I went to the front desk and the lady was so rude would not check me out said I had used the bed.   Refused to give me a refund acted as though she didn't care this hotel is in such awful shape and breaking all sorts of codes with the used condom and stains!!  DO NOT STAY HERE.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Upon checking I came to gate that seems to barely work and see huge warning signs of hiding your stuff and locking your car etc....The hotel grounds are dirty dog poop everywhere.   Get to the room, 242, to walk in to a room that smelled like pot.  Walls were covered in mold.    Pull the comforter back to check the bed (very important in hotels) sheets looked used wrinkled etc.   Then lifted the mattress to find a used condom and nasty stains on the bed skirt!   I went to the front desk and the lady was so rude would not check me out said I had used the bed.   Refused to give me a refund acted as though she didn't care this hotel is in such awful shape and breaking all sorts of codes with the used condom and stains!!  DO NOT STAY HERE.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r373451643-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>373451643</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>Secure parking</t>
+  </si>
+  <si>
+    <t>I stayed one night at this hotel and was told it was very safe because the parking is gated.  When I parked to go in my room,  I noticed several people outside their hotel rooms hanging out on the balcony.  I was on the bottom floor, and there was a man sitting on his car in front of my room talking on the cell phone the entire time I was unloading my belongings and going in and out of the room.  It was quire scary.  The next morning, the same man was outside my room at 6:00 am talking on his cell phone.  I got up and dressed for breakfast.  I had a muffin, banana and a glass of what tasted like orange Kool aid.  I don't plan to stay there againMoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed one night at this hotel and was told it was very safe because the parking is gated.  When I parked to go in my room,  I noticed several people outside their hotel rooms hanging out on the balcony.  I was on the bottom floor, and there was a man sitting on his car in front of my room talking on the cell phone the entire time I was unloading my belongings and going in and out of the room.  It was quire scary.  The next morning, the same man was outside my room at 6:00 am talking on his cell phone.  I got up and dressed for breakfast.  I had a muffin, banana and a glass of what tasted like orange Kool aid.  I don't plan to stay there againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r362535706-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>362535706</t>
+  </si>
+  <si>
+    <t>04/08/2016</t>
+  </si>
+  <si>
+    <t>Good room for value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We recently stayed two nights at this location, in a king executive room. The bed was comfortable and had fresh sheets, the air worked great and it was nice and quiet. The only thing that I would change is that the floors were not as clean as I would have liked there was hair and dust on them. Overall a great stay, we will be back. </t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r357567347-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>357567347</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>Very Nice Value</t>
+  </si>
+  <si>
+    <t>I have stayed a night in this hotel with my family during our recent road trip. The hotel provided us with a good night of sleep after a couple of hundred miles on the road. The staff was not exactly friendly but not rude at all. Check in was fast. Room was clean and quiet. It had flatscreen TV, cable, microwave and mini fridge. Good wifi connection! The bathtub was clean but not perfectly clean.I would definitely stay here again in the future!</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r344158594-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>344158594</t>
+  </si>
+  <si>
+    <t>01/31/2016</t>
+  </si>
+  <si>
+    <t>Three Night Stay (NON-SMOKING BUSINESS 1 KING BED WITH MICRO-FRIDGE)</t>
+  </si>
+  <si>
+    <t>This is a good place to stay for a few nights. The rooms were clean, the bed was comfortable, and the government discount helps (saved $20). There was a "antique smell" but a candle fixed that up within the hour. The only downfall I see is the room having paper-thin walls. Having the Denny's across the parking lot made for a quick and convenient meal. The staff was helpful too; especially with the perpetually failing key card that all hotels have. Other than that I have nothing negative to say about it. Though keep in mind I'm only speaking for the non-smoking King/business room. I hope this review helps.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r338792749-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>338792749</t>
+  </si>
+  <si>
+    <t>01/09/2016</t>
+  </si>
+  <si>
+    <t>Not good.</t>
+  </si>
+  <si>
+    <t>The rooms are in need of  repair. Our door had atleast a 1/2" gap. There was a small roach on our floor that did not get swept up the next day. There was also a roach that was 3" long on the bathroom floor. They also left it. The breakfast was so limited. They didn't keep things stocked as people ate, so there was basically nothing for us to have at 9am. They pick up everything early. I wrote a review to hotels.com and they refused to post what I wrote. So I am posting this so my trip advisor friends don't go there. And the walls are extremely thin. It is a very old hotel that La Quinta owned a few years ago. Nothing has been upgraded. Don't waist your money. And I will never use hotels.com again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>The rooms are in need of  repair. Our door had atleast a 1/2" gap. There was a small roach on our floor that did not get swept up the next day. There was also a roach that was 3" long on the bathroom floor. They also left it. The breakfast was so limited. They didn't keep things stocked as people ate, so there was basically nothing for us to have at 9am. They pick up everything early. I wrote a review to hotels.com and they refused to post what I wrote. So I am posting this so my trip advisor friends don't go there. And the walls are extremely thin. It is a very old hotel that La Quinta owned a few years ago. Nothing has been upgraded. Don't waist your money. And I will never use hotels.com again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r275045405-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>275045405</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>Consistantly Improving</t>
+  </si>
+  <si>
+    <t>I have been staying at this location for years more out of proximity to where I work when in the area and have to give them high marks in maintaining and improving their offering.Bassed on prior stays I was almost dreading the uncertanty of arriving late with no last minute alternatives. After being so pleasantly surprised I slept very well for all 6 nights there.It looks like they managed to reduce the noise and undesirables that used to just hang out there while keeping the prices in line.All the ammenities worked, the bed was firm and balanced and no somke and cover up spray smell like on previous stays.The only drawback was the sluggish internet. I look forward to returning.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>I have been staying at this location for years more out of proximity to where I work when in the area and have to give them high marks in maintaining and improving their offering.Bassed on prior stays I was almost dreading the uncertanty of arriving late with no last minute alternatives. After being so pleasantly surprised I slept very well for all 6 nights there.It looks like they managed to reduce the noise and undesirables that used to just hang out there while keeping the prices in line.All the ammenities worked, the bed was firm and balanced and no somke and cover up spray smell like on previous stays.The only drawback was the sluggish internet. I look forward to returning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r260329473-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>260329473</t>
+  </si>
+  <si>
+    <t>03/18/2015</t>
+  </si>
+  <si>
+    <t>Lovely Stay in Dallas Down Town &amp; Nice - Friendly Hotel Staff , Clean Room</t>
+  </si>
+  <si>
+    <t>I have reserved one night at this hotel for my business trip, I have reach at 4 PM and staff was very friendly when I have done process of check in , they have given me a lots of information to visit after I finish my business meeting, It was very nice room and as per review on this hotel was wrong from my opinion , I haven't found anything wrong, even i have extended my stay one more day at this hotel then I have actually been at Firewheel golf park with some colleague then i have visited Galleria Mall was near and nice, More options for lunch and Dinner I would say that It would be great in that much price amazing stay and close to DownTown even its actually near Univ Texas, I have enjoy my stay and during that haven't heard or haven't found anything wrong with staff or hotel or room , Overall Nice .. Visit again ..! Recommended to Others for Dallas DownTwon in great price and rooms !MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>I have reserved one night at this hotel for my business trip, I have reach at 4 PM and staff was very friendly when I have done process of check in , they have given me a lots of information to visit after I finish my business meeting, It was very nice room and as per review on this hotel was wrong from my opinion , I haven't found anything wrong, even i have extended my stay one more day at this hotel then I have actually been at Firewheel golf park with some colleague then i have visited Galleria Mall was near and nice, More options for lunch and Dinner I would say that It would be great in that much price amazing stay and close to DownTown even its actually near Univ Texas, I have enjoy my stay and during that haven't heard or haven't found anything wrong with staff or hotel or room , Overall Nice .. Visit again ..! Recommended to Others for Dallas DownTwon in great price and rooms !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r259506367-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>259506367</t>
+  </si>
+  <si>
+    <t>03/14/2015</t>
+  </si>
+  <si>
+    <t>horrible, horrible!!!</t>
+  </si>
+  <si>
+    <t>This is the worst (not arguably!) place I have ever stayed.  The room is dirty, the sheets are dirty and I found some hairs on the sheets.  There seems no sound proof; I can hear people talking in other rooms and somebody's flushing of toilet woke me up--to write this review.  I have booked two nights' stay and now I cannot wait for the morning to check out.MoreShow less</t>
+  </si>
+  <si>
+    <t>Karnail S, General Manager at Red Roof Inn Dallas-Richardson, responded to this reviewResponded March 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2015</t>
+  </si>
+  <si>
+    <t>This is the worst (not arguably!) place I have ever stayed.  The room is dirty, the sheets are dirty and I found some hairs on the sheets.  There seems no sound proof; I can hear people talking in other rooms and somebody's flushing of toilet woke me up--to write this review.  I have booked two nights' stay and now I cannot wait for the morning to check out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r259400480-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>259400480</t>
+  </si>
+  <si>
+    <t>Worse than our lowest expectation!</t>
+  </si>
+  <si>
+    <t>We had booked a non-smoking room.  When we got to our room there was an ash tray and the room had a strong smoke odor. Not only that but there was toilet paper in the peep hole and the curtains had been thumb tacked to the wall. This was after midnight when we arrived and we had to move to another room that was non-smoking. That room was better.  At 3 am someone knocked on our door and then the hotel clerk called us to see if we had a visitor. Needless to say we didn't sleep much after that ordeal.  We were excited because they offered free continental breakfast until we saw it. There was just a little cereal. Thank goodness there was a Denny's next door.  We spent $80 for this experience. MoreShow less</t>
+  </si>
+  <si>
+    <t>We had booked a non-smoking room.  When we got to our room there was an ash tray and the room had a strong smoke odor. Not only that but there was toilet paper in the peep hole and the curtains had been thumb tacked to the wall. This was after midnight when we arrived and we had to move to another room that was non-smoking. That room was better.  At 3 am someone knocked on our door and then the hotel clerk called us to see if we had a visitor. Needless to say we didn't sleep much after that ordeal.  We were excited because they offered free continental breakfast until we saw it. There was just a little cereal. Thank goodness there was a Denny's next door.  We spent $80 for this experience. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r247456931-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>247456931</t>
+  </si>
+  <si>
+    <t>01/04/2015</t>
+  </si>
+  <si>
+    <t>business trip</t>
+  </si>
+  <si>
+    <t>this property is not a good place to stay had to change rooms twice the room had mold on the floor bathroom door had a whole in it 2nd room was ok until they wanted me to give them my credit card for a room that they upgraded me to.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r234199325-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>234199325</t>
+  </si>
+  <si>
+    <t>10/13/2014</t>
+  </si>
+  <si>
+    <t>Good value for the price</t>
+  </si>
+  <si>
+    <t>Nice large clean room and helpful staff.Breakfast did the job.Good value for two nights.Wifi useless Keys failed to operate the doors on more than one occasion Next to a Denny's and a Walmart super centre</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r227907665-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>227907665</t>
+  </si>
+  <si>
+    <t>09/09/2014</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for 1 night and it was one night too long.The bathroom was horrible, cracks in tub, the wall looked asif it needed plastering and painting, apparently towel barsripped out or something. The room should never have beenrented out in that condition. The front desk staff were incompetent,to say the least and rude on top of that. I never could get theinternet to work and the incompetent lobby staff were cluelessas to why it did not work. There was piles and piles of trash everywhere in the parking lot, I have never seen such a mess.With all the people behind the front desk, maybe one of themshould go and pick up some trash. I took pictures to show the horriblecondition of this property but can not figure out how to unload it.I took pictures of the staff as well. Corporate office should really takea good look at what is going on at their property. It is pitiful.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for 1 night and it was one night too long.The bathroom was horrible, cracks in tub, the wall looked asif it needed plastering and painting, apparently towel barsripped out or something. The room should never have beenrented out in that condition. The front desk staff were incompetent,to say the least and rude on top of that. I never could get theinternet to work and the incompetent lobby staff were cluelessas to why it did not work. There was piles and piles of trash everywhere in the parking lot, I have never seen such a mess.With all the people behind the front desk, maybe one of themshould go and pick up some trash. I took pictures to show the horriblecondition of this property but can not figure out how to unload it.I took pictures of the staff as well. Corporate office should really takea good look at what is going on at their property. It is pitiful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r209496257-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>209496257</t>
+  </si>
+  <si>
+    <t>06/08/2014</t>
+  </si>
+  <si>
+    <t>Good deal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice deal and good easy location to get into. Poor wifi. Friendly staff. Rooms is good size and well maintained. It is a bit noisy though outside. Recently updated decor with a nice big tv. It has a Denny's located next to it which is a plus for a nice breakfast if you choose.  </t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r208241460-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>208241460</t>
+  </si>
+  <si>
+    <t>05/31/2014</t>
+  </si>
+  <si>
+    <t>Spanish flavor RRI</t>
+  </si>
+  <si>
+    <t>This Red Roof Inn has a very Spanish decor outside, in keeping with the Dallas location. I always get a Superior King room, but this one disappointed. The people loitering outside making noise when I checked in (about 9 PM) was uncomfortable. I am a woman business traveler.  I turned on the TV in order to not hear it. This room was skimpy on desk space, no easy chair, no coffee maker, skimpy on lighting. It showed wear and hard use. The management did provide a clean room, but it needed a renovation.On the positive side, the staff was friendly. The internet worked well.  And the Denny's next door was very handy for breakfast. The price ($62 including tax) seemed a fair price for what was offered.I doubt that I would come back to this RRI, but on this trip I was trying to preserve cash, so it was the best option.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>This Red Roof Inn has a very Spanish decor outside, in keeping with the Dallas location. I always get a Superior King room, but this one disappointed. The people loitering outside making noise when I checked in (about 9 PM) was uncomfortable. I am a woman business traveler.  I turned on the TV in order to not hear it. This room was skimpy on desk space, no easy chair, no coffee maker, skimpy on lighting. It showed wear and hard use. The management did provide a clean room, but it needed a renovation.On the positive side, the staff was friendly. The internet worked well.  And the Denny's next door was very handy for breakfast. The price ($62 including tax) seemed a fair price for what was offered.I doubt that I would come back to this RRI, but on this trip I was trying to preserve cash, so it was the best option.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r207738786-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>207738786</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>It's OK but wish I'd gone elsewhere</t>
+  </si>
+  <si>
+    <t>The motel staff was accommodating, the room was satisfactory and the continental breakfast was OK.  The outward appearance of the establishment left a little to be desired.  I constantly had trouble with the internet and since I'm traveling on business, this was a concern.  One of the things I found most distasteful, although no fault of the motel, was the roaring noise of the freeway.  Fortunately the room was well sound proofed and it didn't keep me awake but when you stepped outside, the noise hit you like a brick!  There was some trouble on a couple of occasions where the room keys did not function and wouldn't let us into the gated parking lot or our room.  If you plan on staying for longer than a night or two, I'd look for someplace else.MoreShow less</t>
+  </si>
+  <si>
+    <t>The motel staff was accommodating, the room was satisfactory and the continental breakfast was OK.  The outward appearance of the establishment left a little to be desired.  I constantly had trouble with the internet and since I'm traveling on business, this was a concern.  One of the things I found most distasteful, although no fault of the motel, was the roaring noise of the freeway.  Fortunately the room was well sound proofed and it didn't keep me awake but when you stepped outside, the noise hit you like a brick!  There was some trouble on a couple of occasions where the room keys did not function and wouldn't let us into the gated parking lot or our room.  If you plan on staying for longer than a night or two, I'd look for someplace else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r199762189-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>199762189</t>
+  </si>
+  <si>
+    <t>04/03/2014</t>
+  </si>
+  <si>
+    <t>The hotel is Marvelous &amp; Excellent.</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel to stay.Location is also good &amp; the hotel is very clean &amp; quite.The Staff is very helpful &amp; co-operative.I must say that this hotel is a good place to stay in Dallas.I spent my holiday nicely due to the hotel &amp; the helpful staff. And i must say that whenever i am going to dallas again this is the only hotel i am going to stay......owsome.....MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Karnail S, Manager at Red Roof Inn Dallas-Richardson, responded to this reviewResponded April 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2014</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel to stay.Location is also good &amp; the hotel is very clean &amp; quite.The Staff is very helpful &amp; co-operative.I must say that this hotel is a good place to stay in Dallas.I spent my holiday nicely due to the hotel &amp; the helpful staff. And i must say that whenever i am going to dallas again this is the only hotel i am going to stay......owsome.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r197258211-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>197258211</t>
+  </si>
+  <si>
+    <t>03/13/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good but excellent ..""awesome "" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff r  so polite n feels goods to leave in under this red roof wid under budget ...any way again may stay  again whenever I get the chance to stay wid under red roof ....enjoyable weekend........may I recommend to other to stay this hotel specially for weekends </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r197172302-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>197172302</t>
+  </si>
+  <si>
+    <t>03/12/2014</t>
+  </si>
+  <si>
+    <t>I enjoyed staying at this hotel, for a week. The front desk staff members are real polite, a blueprint of all dallas tex</t>
+  </si>
+  <si>
+    <t>Clean room,good location,  and a few good looking maids jajajajajaja. Overall, i has a good stay. If your looking for a good spot to stay in Dallas, this is the place. This hotel has a real y good staff, polite and helpful. Im looking foward to returning foe another stay at this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r185569965-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>185569965</t>
+  </si>
+  <si>
+    <t>11/23/2013</t>
+  </si>
+  <si>
+    <t>It's a nice place...</t>
+  </si>
+  <si>
+    <t>My family and I have stayed here on multiple occasions and all have been consistently pleasant and unproblematic.The staff are kind and friendly and the atmosphere quiet and quaint.It is indeed a nice place to stay...MoreShow less</t>
+  </si>
+  <si>
+    <t>Karnail S, General Manager at Red Roof Inn Dallas-Richardson, responded to this reviewResponded November 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 26, 2013</t>
+  </si>
+  <si>
+    <t>My family and I have stayed here on multiple occasions and all have been consistently pleasant and unproblematic.The staff are kind and friendly and the atmosphere quiet and quaint.It is indeed a nice place to stay...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r185445749-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>185445749</t>
+  </si>
+  <si>
+    <t>11/21/2013</t>
+  </si>
+  <si>
+    <t>" Great Improvement!!!!!"</t>
+  </si>
+  <si>
+    <t>we been using this location one a month. I made reservation all the time in advance, the staff was great. they always put me in my favorite room. They have free high speed internet, Continental Breakfast every morning. the room  has new furniture, new flat screen TV. in all rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>we been using this location one a month. I made reservation all the time in advance, the staff was great. they always put me in my favorite room. They have free high speed internet, Continental Breakfast every morning. the room  has new furniture, new flat screen TV. in all rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r184894224-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>184894224</t>
+  </si>
+  <si>
+    <t>11/16/2013</t>
+  </si>
+  <si>
+    <t>My Best Stay Here Yet</t>
+  </si>
+  <si>
+    <t>The renovated room I got was the best I've had here. The cleanest and best appointed since it was an Embassy Suite(s) property. They have updated the appliances, bedding &amp; floors.The neighborhood and some clientele are a bit dicey, but I wasn't approached like in the past.As always, the staff was attentive and provided just the room I needed.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r171257206-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>171257206</t>
+  </si>
+  <si>
+    <t>08/07/2013</t>
+  </si>
+  <si>
+    <t>Worst hotel stay ever!!!!!!</t>
+  </si>
+  <si>
+    <t>The room we where given was near the front desk but when we opened the door almost fell out from the cigarette smoke. Asked for another room and the door was hard to open. The staff was pleasant if you like to be greeted by the Adams family. The room needed to be better cleaned. Glad we only had to stay the night. Only positive was the price.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r166223806-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>166223806</t>
+  </si>
+  <si>
+    <t>07/03/2013</t>
+  </si>
+  <si>
+    <t>Terrible hotel, should be removed from the Red Roof chain.</t>
+  </si>
+  <si>
+    <t>Check in went smoothly, however, everything after that was absolutely unacceptable.  The back of the hotel is "secured" using an automated gate.  Given there are openings around the perimeter of the property I can only assume this is supposed to serve as a deterrent and not provide actual security.  After I entered through the gate I was greeted by very large signs plastered on the side of the motel warning you to lock your vehicle an take your belongings.  These are not the standard "reminder" signs.  These are large oversize signs on the sides of the second floor.  I was also greeted by two toilets sitting on the sidewalk/walkway in front of the motel.
+After I proceeded to the rear of the building (where my room was located) I began to notice a lot of loiterers.  They watched me intently while I unloaded my belongings.  I've seen motels like this before.  They are the kind that people live in, not the kind people vacation in.
+The room was another problem.  The carpet was torn up and ripped all over.  The walls and doors were badly damaged.  The room was also in obvious need of a good deep cleaning.  There were dead cockroaches all over the floor.  They were piled up next to the doorway, they were near the bed, they were in the middle of the carpet, they were everywhere!  I immediately removed my belongings from the room and loaded...Check in went smoothly, however, everything after that was absolutely unacceptable.  The back of the hotel is "secured" using an automated gate.  Given there are openings around the perimeter of the property I can only assume this is supposed to serve as a deterrent and not provide actual security.  After I entered through the gate I was greeted by very large signs plastered on the side of the motel warning you to lock your vehicle an take your belongings.  These are not the standard "reminder" signs.  These are large oversize signs on the sides of the second floor.  I was also greeted by two toilets sitting on the sidewalk/walkway in front of the motel.After I proceeded to the rear of the building (where my room was located) I began to notice a lot of loiterers.  They watched me intently while I unloaded my belongings.  I've seen motels like this before.  They are the kind that people live in, not the kind people vacation in.The room was another problem.  The carpet was torn up and ripped all over.  The walls and doors were badly damaged.  The room was also in obvious need of a good deep cleaning.  There were dead cockroaches all over the floor.  They were piled up next to the doorway, they were near the bed, they were in the middle of the carpet, they were everywhere!  I immediately removed my belongings from the room and loaded them back in my vehicle.The people who watched me unload my stuff were still there staring at me while I loaded them back in my vehicle.  I had to go pick up my wife from an appointment so I left immediately.After I picked her up we immediately returned to the hotel and asked for a full refund and explained everything to the desk clerk.  The clerk refused a refund since we had already checked in (even though the receipt showed us as a no-show which wasn't true).  My wife informed the clerk that we would have to report this to the manager and that we would immediately call our credit card company and dispute the charge.  She didn't seem to care.While we were sitting in the parking lot plotting out plans for alternate accommodations, we received a phone call.  The desk clerk had "called" her manager and he said to remove all of the charges... good thing since we weren't about to pay for a room we never stayed in that was in a condition unbecoming of dog houses.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Check in went smoothly, however, everything after that was absolutely unacceptable.  The back of the hotel is "secured" using an automated gate.  Given there are openings around the perimeter of the property I can only assume this is supposed to serve as a deterrent and not provide actual security.  After I entered through the gate I was greeted by very large signs plastered on the side of the motel warning you to lock your vehicle an take your belongings.  These are not the standard "reminder" signs.  These are large oversize signs on the sides of the second floor.  I was also greeted by two toilets sitting on the sidewalk/walkway in front of the motel.
+After I proceeded to the rear of the building (where my room was located) I began to notice a lot of loiterers.  They watched me intently while I unloaded my belongings.  I've seen motels like this before.  They are the kind that people live in, not the kind people vacation in.
+The room was another problem.  The carpet was torn up and ripped all over.  The walls and doors were badly damaged.  The room was also in obvious need of a good deep cleaning.  There were dead cockroaches all over the floor.  They were piled up next to the doorway, they were near the bed, they were in the middle of the carpet, they were everywhere!  I immediately removed my belongings from the room and loaded...Check in went smoothly, however, everything after that was absolutely unacceptable.  The back of the hotel is "secured" using an automated gate.  Given there are openings around the perimeter of the property I can only assume this is supposed to serve as a deterrent and not provide actual security.  After I entered through the gate I was greeted by very large signs plastered on the side of the motel warning you to lock your vehicle an take your belongings.  These are not the standard "reminder" signs.  These are large oversize signs on the sides of the second floor.  I was also greeted by two toilets sitting on the sidewalk/walkway in front of the motel.After I proceeded to the rear of the building (where my room was located) I began to notice a lot of loiterers.  They watched me intently while I unloaded my belongings.  I've seen motels like this before.  They are the kind that people live in, not the kind people vacation in.The room was another problem.  The carpet was torn up and ripped all over.  The walls and doors were badly damaged.  The room was also in obvious need of a good deep cleaning.  There were dead cockroaches all over the floor.  They were piled up next to the doorway, they were near the bed, they were in the middle of the carpet, they were everywhere!  I immediately removed my belongings from the room and loaded them back in my vehicle.The people who watched me unload my stuff were still there staring at me while I loaded them back in my vehicle.  I had to go pick up my wife from an appointment so I left immediately.After I picked her up we immediately returned to the hotel and asked for a full refund and explained everything to the desk clerk.  The clerk refused a refund since we had already checked in (even though the receipt showed us as a no-show which wasn't true).  My wife informed the clerk that we would have to report this to the manager and that we would immediately call our credit card company and dispute the charge.  She didn't seem to care.While we were sitting in the parking lot plotting out plans for alternate accommodations, we received a phone call.  The desk clerk had "called" her manager and he said to remove all of the charges... good thing since we weren't about to pay for a room we never stayed in that was in a condition unbecoming of dog houses.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r161775900-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>161775900</t>
+  </si>
+  <si>
+    <t>05/25/2013</t>
+  </si>
+  <si>
+    <t>Nice improvement, but  "AWESOME?"</t>
+  </si>
+  <si>
+    <t>Not to critique another travelers review, but this place is no Ritz Carlton. I agree they have done a great job of cleaning this place up room by room. The desk staff has always been lovely and would try to meet a gusts needs within the limitations of an aging property.This last stay (May 2013) was my best yet, but there are still some systemic issues regarding the human and auto traffic and monitoring activity on and around the property.This place had been one of those Red Roof Inns I would tolerate because of the Redi Card program, location and price, but has a history of a pretty dicey clientele. It's certainly not the worst neighborhood north of Dallas, but seems to attract activity that would leave older people, an unaccompanied woman or a traveling professional uncomfortable.The room I got was up dated, well appointed and comfortable and the breakfast was better than most budget properties. A greater police presence will help and if they renovate more rooms like the one I had this time this place will go from the "tolerated" rating to a destination. I will be returning as long as they keep showing improvement.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Karnail S, Manager at Red Roof Inn Dallas-Richardson, responded to this reviewResponded May 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2013</t>
+  </si>
+  <si>
+    <t>Not to critique another travelers review, but this place is no Ritz Carlton. I agree they have done a great job of cleaning this place up room by room. The desk staff has always been lovely and would try to meet a gusts needs within the limitations of an aging property.This last stay (May 2013) was my best yet, but there are still some systemic issues regarding the human and auto traffic and monitoring activity on and around the property.This place had been one of those Red Roof Inns I would tolerate because of the Redi Card program, location and price, but has a history of a pretty dicey clientele. It's certainly not the worst neighborhood north of Dallas, but seems to attract activity that would leave older people, an unaccompanied woman or a traveling professional uncomfortable.The room I got was up dated, well appointed and comfortable and the breakfast was better than most budget properties. A greater police presence will help and if they renovate more rooms like the one I had this time this place will go from the "tolerated" rating to a destination. I will be returning as long as they keep showing improvement.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r155458698-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>155458698</t>
+  </si>
+  <si>
+    <t>03/23/2013</t>
+  </si>
+  <si>
+    <t>Won't stay here again without major renovations</t>
+  </si>
+  <si>
+    <t>The furniture in the room was very old and dated and not the standard Red Roof Inn style furniture.   This must have been another chain at one time and they kept the old furniture.   The carpet was worn and stained. The area was also quite noisy.   All night long all I heard was noisy hotel guests in the lot and passing police car sirens</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r150613264-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>150613264</t>
+  </si>
+  <si>
+    <t>01/25/2013</t>
+  </si>
+  <si>
+    <t>awsome</t>
+  </si>
+  <si>
+    <t>been here since november an still staying the staff is awsome always helpfull an friendly.i would alway stay here when im in town they have low rates great location right off freeway close to resturants an shopping centers an movie theater MoreShow less</t>
+  </si>
+  <si>
+    <t>Karnail S, Front Office Manager at Red Roof Inn Dallas-Richardson, responded to this reviewResponded January 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2013</t>
+  </si>
+  <si>
+    <t>been here since november an still staying the staff is awsome always helpfull an friendly.i would alway stay here when im in town they have low rates great location right off freeway close to resturants an shopping centers an movie theater More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r147630201-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>147630201</t>
+  </si>
+  <si>
+    <t>12/17/2012</t>
+  </si>
+  <si>
+    <t>Very Accommodating</t>
+  </si>
+  <si>
+    <t>Had reservations here and had to book an extra day.  We arrived a day earlier than planned and asked to get the same room for the two days and they were able to help us out with no issues.  Room was a little small but were the average size for Red Roof Inns. An over all good stay.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r140123487-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>140123487</t>
+  </si>
+  <si>
+    <t>09/12/2012</t>
+  </si>
+  <si>
+    <t>GREAT STAY FOR A LOW PRICE WOWWW</t>
+  </si>
+  <si>
+    <t>I had a great weeks stay at this location and my children loved swimming in their very clean pool I really ehjoyed their fresh coffe everyday at any time I went the coffee smelled fresh...I also liked that the staff there are always helpful and they met all my needs.. my kids had a great time they really enjoyed it and I loved that with the hot climate in dallas there a.c really kept the room very cold I slept very well better than at home...</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r140122439-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>140122439</t>
+  </si>
+  <si>
+    <t>It's a Great place to stay!</t>
+  </si>
+  <si>
+    <t>I am very pleased with my stay at Red Roof Inn. It has great and clean rooms and the workers at the front desk are always in a great mood! The front staff is always ready for any concerns. If you don't have Internet on your computer or other devices and your trying to get somewhere where there's wi-fi , you don't have to! That's another great thing , there's free wi-fi! If you run out of goodies or food just know that Red Roof Inn is close to Walmart too , and restaurants where you can have meetings with your bosses or co-workers. You can invite your family and have a nice dinner at one of the close by restaurants and don't have to worry about going anywhere far at all. I enjoyed my stay there , and if I did I am one-hundred you will too.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>I am very pleased with my stay at Red Roof Inn. It has great and clean rooms and the workers at the front desk are always in a great mood! The front staff is always ready for any concerns. If you don't have Internet on your computer or other devices and your trying to get somewhere where there's wi-fi , you don't have to! That's another great thing , there's free wi-fi! If you run out of goodies or food just know that Red Roof Inn is close to Walmart too , and restaurants where you can have meetings with your bosses or co-workers. You can invite your family and have a nice dinner at one of the close by restaurants and don't have to worry about going anywhere far at all. I enjoyed my stay there , and if I did I am one-hundred you will too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r132073085-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>132073085</t>
+  </si>
+  <si>
+    <t>06/15/2012</t>
+  </si>
+  <si>
+    <t>Nightmarish experience--never again!</t>
+  </si>
+  <si>
+    <t>I don't understand how anyone would think this hotel has been remodeled--it hasn't! Trust me--I'm a frequent guest at Red Roof Inns (RediCard holder) and I appreciate the many hotels they've remodeled recently--Laredo, Oklahoma City, Kansas City and others. But somehow the Dallas-Richardson location got left out of the funding pool. I asked for a nonsmoking room and was given a room that smelled sickeningly sweet, which I figured was to cover up dog odor, as the chain does allow dogs in the rooms. Gradually I realized the smell was an overdose of air freshener designed to cover up the smoke smell that grew stronger throughout the night until my skin was itching head to toe, my throat sweling, my eyes watering and my nose running. I couldn't sleep. I couldn't go barefoot either--the carpet was filthy. At 6am I went to the lobby for "breakfast"--a scant offering of leftover Entenman's rolls and soggy mini-muffins, with half a container of separated orange juice (also leftover, I presume), three cereals and a bit of milk, and half a carafe of coffee for the large number of guests who had checked in. There were apples, too. But the hotel is so dirty that I didn't want to touch anything not in a package, which meant no breakfast. When I got back to the room, the smoke smell was overwhelming. Then I remembered that I hadn't charged my cell phone, so I pulled...I don't understand how anyone would think this hotel has been remodeled--it hasn't! Trust me--I'm a frequent guest at Red Roof Inns (RediCard holder) and I appreciate the many hotels they've remodeled recently--Laredo, Oklahoma City, Kansas City and others. But somehow the Dallas-Richardson location got left out of the funding pool. I asked for a nonsmoking room and was given a room that smelled sickeningly sweet, which I figured was to cover up dog odor, as the chain does allow dogs in the rooms. Gradually I realized the smell was an overdose of air freshener designed to cover up the smoke smell that grew stronger throughout the night until my skin was itching head to toe, my throat sweling, my eyes watering and my nose running. I couldn't sleep. I couldn't go barefoot either--the carpet was filthy. At 6am I went to the lobby for "breakfast"--a scant offering of leftover Entenman's rolls and soggy mini-muffins, with half a container of separated orange juice (also leftover, I presume), three cereals and a bit of milk, and half a carafe of coffee for the large number of guests who had checked in. There were apples, too. But the hotel is so dirty that I didn't want to touch anything not in a package, which meant no breakfast. When I got back to the room, the smoke smell was overwhelming. Then I remembered that I hadn't charged my cell phone, so I pulled the night stand away from the wall to see if there was an outlet behind it. There was--along with a bunch of trash and a cigarette butt crushed into the carpet. Since I hadn't slept and checkout was at noon, I tried once more (they do have good blackout drapes) and managed to oversleep my alarm. I woke up at 12:06. Right away I called the front desk to ask for late checkout. "You can have until 12:30," the clerk said, and hung up. Apparently she forgot to tell the housekeeping staff, because they began pounding on my door and yelling for me to get out, and they continued throughout my very quick shower. I called back to the through the locked door, "Tengo permiso quedar hasta las doce y media"--"I have permission to stay until 12:30." Just as I was walking from the shower to the sink, completely naked, I heard more pounding and a man's voice tell me to get out. Then the man unlocked the door and pushed it open. I grabbed a hand towel and yelled, "Shut the door and go away or I will call the police." The man walked away, leaving the door open. I scrambled to shut and lock it, and since I could see they would not respect my late checkout time, and that they were able to unlock and open my door even with the security latch on, I didn't bother to dry off--just pulled my clothes on, threw my stuff into my bag and got out at 12:32. I went to the front desk to complain and to ask for my money back. The desk clerk was sympathetic and called the manager, Ginga, or something like that. She said there was nothing she could do. I had paid in cash and they refused to do anything to compensate for my horrible, smoky, sleepless night, the non-breakfast, and the abusive housekeeping staff. I have filed a report with Red Roof Inns and we will see if anything gets done. I would not stay at this particular Red Roof again--at least not until they remodel. Oh--by the way, as I was checking in, a guest came to the front desk asking for a vacuum cleaner. Later I saw him returning it and he said his room was jumping with fleas and he had vacuumed them up. The hotel didn't get him a different room--they just let him vacuum the fleas! Service doesn't get much worse than that. I agree that Brenda at the front desk, and a manager named Maria, are both very polite and professional but they both were ineffective at getting me any sort of restitution.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>I don't understand how anyone would think this hotel has been remodeled--it hasn't! Trust me--I'm a frequent guest at Red Roof Inns (RediCard holder) and I appreciate the many hotels they've remodeled recently--Laredo, Oklahoma City, Kansas City and others. But somehow the Dallas-Richardson location got left out of the funding pool. I asked for a nonsmoking room and was given a room that smelled sickeningly sweet, which I figured was to cover up dog odor, as the chain does allow dogs in the rooms. Gradually I realized the smell was an overdose of air freshener designed to cover up the smoke smell that grew stronger throughout the night until my skin was itching head to toe, my throat sweling, my eyes watering and my nose running. I couldn't sleep. I couldn't go barefoot either--the carpet was filthy. At 6am I went to the lobby for "breakfast"--a scant offering of leftover Entenman's rolls and soggy mini-muffins, with half a container of separated orange juice (also leftover, I presume), three cereals and a bit of milk, and half a carafe of coffee for the large number of guests who had checked in. There were apples, too. But the hotel is so dirty that I didn't want to touch anything not in a package, which meant no breakfast. When I got back to the room, the smoke smell was overwhelming. Then I remembered that I hadn't charged my cell phone, so I pulled...I don't understand how anyone would think this hotel has been remodeled--it hasn't! Trust me--I'm a frequent guest at Red Roof Inns (RediCard holder) and I appreciate the many hotels they've remodeled recently--Laredo, Oklahoma City, Kansas City and others. But somehow the Dallas-Richardson location got left out of the funding pool. I asked for a nonsmoking room and was given a room that smelled sickeningly sweet, which I figured was to cover up dog odor, as the chain does allow dogs in the rooms. Gradually I realized the smell was an overdose of air freshener designed to cover up the smoke smell that grew stronger throughout the night until my skin was itching head to toe, my throat sweling, my eyes watering and my nose running. I couldn't sleep. I couldn't go barefoot either--the carpet was filthy. At 6am I went to the lobby for "breakfast"--a scant offering of leftover Entenman's rolls and soggy mini-muffins, with half a container of separated orange juice (also leftover, I presume), three cereals and a bit of milk, and half a carafe of coffee for the large number of guests who had checked in. There were apples, too. But the hotel is so dirty that I didn't want to touch anything not in a package, which meant no breakfast. When I got back to the room, the smoke smell was overwhelming. Then I remembered that I hadn't charged my cell phone, so I pulled the night stand away from the wall to see if there was an outlet behind it. There was--along with a bunch of trash and a cigarette butt crushed into the carpet. Since I hadn't slept and checkout was at noon, I tried once more (they do have good blackout drapes) and managed to oversleep my alarm. I woke up at 12:06. Right away I called the front desk to ask for late checkout. "You can have until 12:30," the clerk said, and hung up. Apparently she forgot to tell the housekeeping staff, because they began pounding on my door and yelling for me to get out, and they continued throughout my very quick shower. I called back to the through the locked door, "Tengo permiso quedar hasta las doce y media"--"I have permission to stay until 12:30." Just as I was walking from the shower to the sink, completely naked, I heard more pounding and a man's voice tell me to get out. Then the man unlocked the door and pushed it open. I grabbed a hand towel and yelled, "Shut the door and go away or I will call the police." The man walked away, leaving the door open. I scrambled to shut and lock it, and since I could see they would not respect my late checkout time, and that they were able to unlock and open my door even with the security latch on, I didn't bother to dry off--just pulled my clothes on, threw my stuff into my bag and got out at 12:32. I went to the front desk to complain and to ask for my money back. The desk clerk was sympathetic and called the manager, Ginga, or something like that. She said there was nothing she could do. I had paid in cash and they refused to do anything to compensate for my horrible, smoky, sleepless night, the non-breakfast, and the abusive housekeeping staff. I have filed a report with Red Roof Inns and we will see if anything gets done. I would not stay at this particular Red Roof again--at least not until they remodel. Oh--by the way, as I was checking in, a guest came to the front desk asking for a vacuum cleaner. Later I saw him returning it and he said his room was jumping with fleas and he had vacuumed them up. The hotel didn't get him a different room--they just let him vacuum the fleas! Service doesn't get much worse than that. I agree that Brenda at the front desk, and a manager named Maria, are both very polite and professional but they both were ineffective at getting me any sort of restitution.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r131352539-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>131352539</t>
+  </si>
+  <si>
+    <t>06/05/2012</t>
+  </si>
+  <si>
+    <t>GREAT HOTEL!!!</t>
+  </si>
+  <si>
+    <t>I had a Spectacular stay! I've been there a couple of times before and always been treated great. First of all i arrived and was greeted kindly and helped with everything i needed and asked for, by the receptionist named Brenda. I arrived to a clean room,clean restroom clean pool, everything was great. They had a complimentary breakfast along with the stay, free wifi which was fast speed and great room service. They have many different restaurants and stores close by which helps alot, saves gas and time,its a great location.Hopefully ill be able to stay there again soon.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r131217245-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>131217245</t>
+  </si>
+  <si>
+    <t>06/03/2012</t>
+  </si>
+  <si>
+    <t>Wonderful Stay</t>
+  </si>
+  <si>
+    <t>I had a wonderful stay at this Reroof Inn in Richardson. They have done extensive renovation in the hotel. The hotel rooms are very nice and comfortable. Hotel staff is very professional and helpful. While our staying there my Husband got sick because of his poor health. The staff at the front was so helpful by finding nearest clinic and made an appointment for us. Hotel has Wal-Mart at very next door walk in distance which is really convenant.They have very nice continental breakfast also. I will definitely stay at this Hotel on my next Trip there.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r125815373-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>125815373</t>
+  </si>
+  <si>
+    <t>03/08/2012</t>
+  </si>
+  <si>
+    <t>Best place in Dallas Richardson</t>
+  </si>
+  <si>
+    <t>Ive been staying at this location for three years everytime Im in Dallas this is my favorite location everyone makes me feel welcome and the staff is very friendly and attentive with my needs.  It is on a great location for me right off the hwy.. all my favorite restaurants are close by walking distance and there internet is very fast. I love that theres over fifty channels to view on the television, great place to stay for business and extended stay...</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r113106521-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>113106521</t>
+  </si>
+  <si>
+    <t>06/13/2011</t>
+  </si>
+  <si>
+    <t>GREAT LOCATION</t>
+  </si>
+  <si>
+    <t>well the rooms need to be updated. our room didnt have no handles on the bathroom doors. The curtains were falling down and hard to close them. The bed was great. The bathrooms at all of the RED ROOFS INNS that i have ever stayed had small bathrooms. This hotel really needs to be updated and fresh paint outside. I wont stay at this hotel again. The first room that they gave us wasnt cleaned up and had to get another room. I feel that the staff at this hotel should have been better nand they should check the rooms somtimes to see what is wrong with them and get the problems fixed..MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>well the rooms need to be updated. our room didnt have no handles on the bathroom doors. The curtains were falling down and hard to close them. The bed was great. The bathrooms at all of the RED ROOFS INNS that i have ever stayed had small bathrooms. This hotel really needs to be updated and fresh paint outside. I wont stay at this hotel again. The first room that they gave us wasnt cleaned up and had to get another room. I feel that the staff at this hotel should have been better nand they should check the rooms somtimes to see what is wrong with them and get the problems fixed..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r99331241-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>99331241</t>
+  </si>
+  <si>
+    <t>03/07/2011</t>
+  </si>
+  <si>
+    <t>great stay</t>
+  </si>
+  <si>
+    <t>quiet place to stay the rooms were very clean and there wireless was very good in speed</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r97616778-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>97616778</t>
+  </si>
+  <si>
+    <t>02/22/2011</t>
+  </si>
+  <si>
+    <t>What a piece of fecal material.</t>
+  </si>
+  <si>
+    <t>I have used this hotel many times under a previous chain name with absolutley no problems at all.Upon my arrival I found that the ceiling in the closet was in the process of falling down. Also, there were several places where the carpet was torn, ripped and coming off the floor. The bathroom sink had no stopper, the shower appeared unclean (I elected to not use the shower while I was there). The tub and comode had burn marks on them.Of the electrical outlets that I tried, only half worked. No radio or other means of telling time nor setting a wake up call. My room was cleaned everyday, but the ice bucket was not emptied nor cleaned after my first use - and stayed that way for my three day stay.The heavy "main" curtain on the window had rips in it where someone could clearly look through should they wish.This is the first, and hopefully the last, negative review I'll ever give on a hotel/motel. I don't make this negative recommendation lightly.This facility in the past has been absolutley wonderful. It surprises me to find it in this condition. I cannot recommend it to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>I have used this hotel many times under a previous chain name with absolutley no problems at all.Upon my arrival I found that the ceiling in the closet was in the process of falling down. Also, there were several places where the carpet was torn, ripped and coming off the floor. The bathroom sink had no stopper, the shower appeared unclean (I elected to not use the shower while I was there). The tub and comode had burn marks on them.Of the electrical outlets that I tried, only half worked. No radio or other means of telling time nor setting a wake up call. My room was cleaned everyday, but the ice bucket was not emptied nor cleaned after my first use - and stayed that way for my three day stay.The heavy "main" curtain on the window had rips in it where someone could clearly look through should they wish.This is the first, and hopefully the last, negative review I'll ever give on a hotel/motel. I don't make this negative recommendation lightly.This facility in the past has been absolutley wonderful. It surprises me to find it in this condition. I cannot recommend it to anyone.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1537,2881 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>85</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>91</v>
+      </c>
+      <c r="O11" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>129</v>
+      </c>
+      <c r="O14" t="s">
+        <v>65</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>135</v>
+      </c>
+      <c r="O15" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" t="s">
+        <v>139</v>
+      </c>
+      <c r="K16" t="s">
+        <v>140</v>
+      </c>
+      <c r="L16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>142</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>149</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18" t="s">
+        <v>154</v>
+      </c>
+      <c r="L18" t="s">
+        <v>155</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>149</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>156</v>
+      </c>
+      <c r="X18" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" t="s">
+        <v>153</v>
+      </c>
+      <c r="K19" t="s">
+        <v>161</v>
+      </c>
+      <c r="L19" t="s">
+        <v>162</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>156</v>
+      </c>
+      <c r="X19" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>165</v>
+      </c>
+      <c r="J20" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>169</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" t="s">
+        <v>172</v>
+      </c>
+      <c r="K21" t="s">
+        <v>173</v>
+      </c>
+      <c r="L21" t="s">
+        <v>174</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>175</v>
+      </c>
+      <c r="O21" t="s">
+        <v>65</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" t="s">
+        <v>83</v>
+      </c>
+      <c r="L22" t="s">
+        <v>179</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>180</v>
+      </c>
+      <c r="O22" t="s">
+        <v>85</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>183</v>
+      </c>
+      <c r="J23" t="s">
+        <v>184</v>
+      </c>
+      <c r="K23" t="s">
+        <v>185</v>
+      </c>
+      <c r="L23" t="s">
+        <v>186</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>187</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>189</v>
+      </c>
+      <c r="J24" t="s">
+        <v>190</v>
+      </c>
+      <c r="K24" t="s">
+        <v>191</v>
+      </c>
+      <c r="L24" t="s">
+        <v>192</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>193</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>195</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>196</v>
+      </c>
+      <c r="J25" t="s">
+        <v>197</v>
+      </c>
+      <c r="K25" t="s">
+        <v>198</v>
+      </c>
+      <c r="L25" t="s">
+        <v>199</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>193</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>202</v>
+      </c>
+      <c r="J26" t="s">
+        <v>203</v>
+      </c>
+      <c r="K26" t="s">
+        <v>204</v>
+      </c>
+      <c r="L26" t="s">
+        <v>205</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>206</v>
+      </c>
+      <c r="O26" t="s">
+        <v>207</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>208</v>
+      </c>
+      <c r="X26" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>211</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>212</v>
+      </c>
+      <c r="J27" t="s">
+        <v>213</v>
+      </c>
+      <c r="K27" t="s">
+        <v>214</v>
+      </c>
+      <c r="L27" t="s">
+        <v>215</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>217</v>
+      </c>
+      <c r="J28" t="s">
+        <v>218</v>
+      </c>
+      <c r="K28" t="s">
+        <v>219</v>
+      </c>
+      <c r="L28" t="s">
+        <v>220</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>206</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>221</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>222</v>
+      </c>
+      <c r="J29" t="s">
+        <v>223</v>
+      </c>
+      <c r="K29" t="s">
+        <v>224</v>
+      </c>
+      <c r="L29" t="s">
+        <v>225</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>226</v>
+      </c>
+      <c r="X29" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>230</v>
+      </c>
+      <c r="J30" t="s">
+        <v>231</v>
+      </c>
+      <c r="K30" t="s">
+        <v>232</v>
+      </c>
+      <c r="L30" t="s">
+        <v>233</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>234</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>226</v>
+      </c>
+      <c r="X30" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>236</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>237</v>
+      </c>
+      <c r="J31" t="s">
+        <v>238</v>
+      </c>
+      <c r="K31" t="s">
+        <v>239</v>
+      </c>
+      <c r="L31" t="s">
+        <v>240</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>241</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>242</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>243</v>
+      </c>
+      <c r="J32" t="s">
+        <v>244</v>
+      </c>
+      <c r="K32" t="s">
+        <v>245</v>
+      </c>
+      <c r="L32" t="s">
+        <v>246</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>247</v>
+      </c>
+      <c r="O32" t="s">
+        <v>72</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>248</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>249</v>
+      </c>
+      <c r="J33" t="s">
+        <v>250</v>
+      </c>
+      <c r="K33" t="s">
+        <v>251</v>
+      </c>
+      <c r="L33" t="s">
+        <v>252</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>253</v>
+      </c>
+      <c r="O33" t="s">
+        <v>65</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>255</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>256</v>
+      </c>
+      <c r="J34" t="s">
+        <v>257</v>
+      </c>
+      <c r="K34" t="s">
+        <v>258</v>
+      </c>
+      <c r="L34" t="s">
+        <v>259</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>260</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>261</v>
+      </c>
+      <c r="X34" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>264</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>265</v>
+      </c>
+      <c r="J35" t="s">
+        <v>266</v>
+      </c>
+      <c r="K35" t="s">
+        <v>267</v>
+      </c>
+      <c r="L35" t="s">
+        <v>268</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>269</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>270</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>271</v>
+      </c>
+      <c r="J36" t="s">
+        <v>272</v>
+      </c>
+      <c r="K36" t="s">
+        <v>273</v>
+      </c>
+      <c r="L36" t="s">
+        <v>274</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>275</v>
+      </c>
+      <c r="X36" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>278</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>279</v>
+      </c>
+      <c r="J37" t="s">
+        <v>280</v>
+      </c>
+      <c r="K37" t="s">
+        <v>281</v>
+      </c>
+      <c r="L37" t="s">
+        <v>282</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>283</v>
+      </c>
+      <c r="O37" t="s">
+        <v>72</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>285</v>
+      </c>
+      <c r="J38" t="s">
+        <v>286</v>
+      </c>
+      <c r="K38" t="s">
+        <v>287</v>
+      </c>
+      <c r="L38" t="s">
+        <v>288</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>289</v>
+      </c>
+      <c r="O38" t="s">
+        <v>72</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>290</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>291</v>
+      </c>
+      <c r="J39" t="s">
+        <v>286</v>
+      </c>
+      <c r="K39" t="s">
+        <v>292</v>
+      </c>
+      <c r="L39" t="s">
+        <v>293</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>294</v>
+      </c>
+      <c r="O39" t="s">
+        <v>207</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>296</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>297</v>
+      </c>
+      <c r="J40" t="s">
+        <v>298</v>
+      </c>
+      <c r="K40" t="s">
+        <v>299</v>
+      </c>
+      <c r="L40" t="s">
+        <v>300</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>301</v>
+      </c>
+      <c r="O40" t="s">
+        <v>85</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>303</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>304</v>
+      </c>
+      <c r="J41" t="s">
+        <v>305</v>
+      </c>
+      <c r="K41" t="s">
+        <v>306</v>
+      </c>
+      <c r="L41" t="s">
+        <v>307</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>301</v>
+      </c>
+      <c r="O41" t="s">
+        <v>72</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>308</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>309</v>
+      </c>
+      <c r="J42" t="s">
+        <v>310</v>
+      </c>
+      <c r="K42" t="s">
+        <v>311</v>
+      </c>
+      <c r="L42" t="s">
+        <v>312</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>294</v>
+      </c>
+      <c r="O42" t="s">
+        <v>72</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>313</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>314</v>
+      </c>
+      <c r="J43" t="s">
+        <v>315</v>
+      </c>
+      <c r="K43" t="s">
+        <v>316</v>
+      </c>
+      <c r="L43" t="s">
+        <v>317</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>318</v>
+      </c>
+      <c r="O43" t="s">
+        <v>85</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>319</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>320</v>
+      </c>
+      <c r="J44" t="s">
+        <v>321</v>
+      </c>
+      <c r="K44" t="s">
+        <v>322</v>
+      </c>
+      <c r="L44" t="s">
+        <v>323</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>324</v>
+      </c>
+      <c r="O44" t="s">
+        <v>65</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>326</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>327</v>
+      </c>
+      <c r="J45" t="s">
+        <v>328</v>
+      </c>
+      <c r="K45" t="s">
+        <v>329</v>
+      </c>
+      <c r="L45" t="s">
+        <v>330</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>331</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>332</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>333</v>
+      </c>
+      <c r="J46" t="s">
+        <v>334</v>
+      </c>
+      <c r="K46" t="s">
+        <v>335</v>
+      </c>
+      <c r="L46" t="s">
+        <v>336</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>337</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>338</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_641.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_641.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="381">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Chocolatescakes</t>
+  </si>
+  <si>
     <t>06/16/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>JoeVanBiker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r524760876-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>David M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r523259587-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Lisa S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r466076910-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Marej50</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r465370193-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t>We stayed at this Red Roof Inn because it was in close proximity to friends we were meeting for dinner and because Red Roof is pet friendly.Just be advised if you have a dog you will be put in a sub par room! Stain on the bedspread and the door had visible damage, light coming in at the top and bottom of the door. It was dirty, obviously the laminate floor had not been wet mopped in a while. The beds were comfy but cleanliness of the spread and blanket was questionable. Toilet was loose at the base.Maybe if you don't have a pet you get a better room but I doubt it. Also had a security gate you opened with your key card to drive to your room. Kinda scary! We also had to call the desk twice due to neighbors playing loud music with booming bass. I would skip this place and find something better!!More</t>
   </si>
   <si>
+    <t>Laney  F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r464607718-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -276,6 +294,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Nicole G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r436260456-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -297,6 +318,9 @@
     <t>I have been here for almost a year with my family, and the maid service is horrible. They should come twice a week and NEVER COME, so I am left with a pile of blankets and towels for two weeks. I asked nicely for them to over and over again and they never show.  They have only shown to change the towels and blankets a few times since I have been here. A lot of the rooms leak when it rains, the air works, but heat doesn't. There is only one working washing machine, and the vending machine hasn't worked in months .  They do have a small breakfast, not much to it but good enough for the kids. The weekly price is the best in the area, and is spacey  with two beds.  It is pretty quiet. No one bothers us. There are mostly business people and families that stay here. They do have a pool that usually stays clean in the summertime and the office people are nice. Internet was very slow, but it has improved . My only real complaint is with the maid service, otherwise not bad for the price.More</t>
   </si>
   <si>
+    <t>ambati k</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r415491144-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -315,6 +339,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>Sherry N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r405075315-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -336,6 +363,9 @@
     <t>Upon checking I came to gate that seems to barely work and see huge warning signs of hiding your stuff and locking your car etc....The hotel grounds are dirty dog poop everywhere.   Get to the room, 242, to walk in to a room that smelled like pot.  Walls were covered in mold.    Pull the comforter back to check the bed (very important in hotels) sheets looked used wrinkled etc.   Then lifted the mattress to find a used condom and nasty stains on the bed skirt!   I went to the front desk and the lady was so rude would not check me out said I had used the bed.   Refused to give me a refund acted as though she didn't care this hotel is in such awful shape and breaking all sorts of codes with the used condom and stains!!  DO NOT STAY HERE.More</t>
   </si>
   <si>
+    <t>Janice S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r373451643-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -354,6 +384,9 @@
     <t>I stayed one night at this hotel and was told it was very safe because the parking is gated.  When I parked to go in my room,  I noticed several people outside their hotel rooms hanging out on the balcony.  I was on the bottom floor, and there was a man sitting on his car in front of my room talking on the cell phone the entire time I was unloading my belongings and going in and out of the room.  It was quire scary.  The next morning, the same man was outside my room at 6:00 am talking on his cell phone.  I got up and dressed for breakfast.  I had a muffin, banana and a glass of what tasted like orange Kool aid.  I don't plan to stay there againMore</t>
   </si>
   <si>
+    <t>xmeganjx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r362535706-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -372,6 +405,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Fellipe R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r357567347-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -390,6 +426,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Mario B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r344158594-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -408,6 +447,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>bshondo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r338792749-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -429,6 +471,9 @@
     <t>The rooms are in need of  repair. Our door had atleast a 1/2" gap. There was a small roach on our floor that did not get swept up the next day. There was also a roach that was 3" long on the bathroom floor. They also left it. The breakfast was so limited. They didn't keep things stocked as people ate, so there was basically nothing for us to have at 9am. They pick up everything early. I wrote a review to hotels.com and they refused to post what I wrote. So I am posting this so my trip advisor friends don't go there. And the walls are extremely thin. It is a very old hotel that La Quinta owned a few years ago. Nothing has been upgraded. Don't waist your money. And I will never use hotels.com again.More</t>
   </si>
   <si>
+    <t>Mitch P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r275045405-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -450,6 +495,9 @@
     <t>I have been staying at this location for years more out of proximity to where I work when in the area and have to give them high marks in maintaining and improving their offering.Bassed on prior stays I was almost dreading the uncertanty of arriving late with no last minute alternatives. After being so pleasantly surprised I slept very well for all 6 nights there.It looks like they managed to reduce the noise and undesirables that used to just hang out there while keeping the prices in line.All the ammenities worked, the bed was firm and balanced and no somke and cover up spray smell like on previous stays.The only drawback was the sluggish internet. I look forward to returning.More</t>
   </si>
   <si>
+    <t>JBurson25</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r260329473-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -471,6 +519,9 @@
     <t>I have reserved one night at this hotel for my business trip, I have reach at 4 PM and staff was very friendly when I have done process of check in , they have given me a lots of information to visit after I finish my business meeting, It was very nice room and as per review on this hotel was wrong from my opinion , I haven't found anything wrong, even i have extended my stay one more day at this hotel then I have actually been at Firewheel golf park with some colleague then i have visited Galleria Mall was near and nice, More options for lunch and Dinner I would say that It would be great in that much price amazing stay and close to DownTown even its actually near Univ Texas, I have enjoy my stay and during that haven't heard or haven't found anything wrong with staff or hotel or room , Overall Nice .. Visit again ..! Recommended to Others for Dallas DownTwon in great price and rooms !More</t>
   </si>
   <si>
+    <t>Feng M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r259506367-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -495,6 +546,9 @@
     <t>This is the worst (not arguably!) place I have ever stayed.  The room is dirty, the sheets are dirty and I found some hairs on the sheets.  There seems no sound proof; I can hear people talking in other rooms and somebody's flushing of toilet woke me up--to write this review.  I have booked two nights' stay and now I cannot wait for the morning to check out.More</t>
   </si>
   <si>
+    <t>EmDixon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r259400480-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -510,6 +564,9 @@
     <t>We had booked a non-smoking room.  When we got to our room there was an ash tray and the room had a strong smoke odor. Not only that but there was toilet paper in the peep hole and the curtains had been thumb tacked to the wall. This was after midnight when we arrived and we had to move to another room that was non-smoking. That room was better.  At 3 am someone knocked on our door and then the hotel clerk called us to see if we had a visitor. Needless to say we didn't sleep much after that ordeal.  We were excited because they offered free continental breakfast until we saw it. There was just a little cereal. Thank goodness there was a Denny's next door.  We spent $80 for this experience. More</t>
   </si>
   <si>
+    <t>leavonne</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r247456931-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -528,6 +585,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>wendywuredhill</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r234199325-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -546,6 +606,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>elaine k</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r227907665-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -564,6 +627,9 @@
     <t>I stayed in this hotel for 1 night and it was one night too long.The bathroom was horrible, cracks in tub, the wall looked asif it needed plastering and painting, apparently towel barsripped out or something. The room should never have beenrented out in that condition. The front desk staff were incompetent,to say the least and rude on top of that. I never could get theinternet to work and the incompetent lobby staff were cluelessas to why it did not work. There was piles and piles of trash everywhere in the parking lot, I have never seen such a mess.With all the people behind the front desk, maybe one of themshould go and pick up some trash. I took pictures to show the horriblecondition of this property but can not figure out how to unload it.I took pictures of the staff as well. Corporate office should really takea good look at what is going on at their property. It is pitiful.More</t>
   </si>
   <si>
+    <t>Geowens</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r209496257-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -582,6 +648,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>MTIndiana</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r208241460-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -603,6 +672,9 @@
     <t>This Red Roof Inn has a very Spanish decor outside, in keeping with the Dallas location. I always get a Superior King room, but this one disappointed. The people loitering outside making noise when I checked in (about 9 PM) was uncomfortable. I am a woman business traveler.  I turned on the TV in order to not hear it. This room was skimpy on desk space, no easy chair, no coffee maker, skimpy on lighting. It showed wear and hard use. The management did provide a clean room, but it needed a renovation.On the positive side, the staff was friendly. The internet worked well.  And the Denny's next door was very handy for breakfast. The price ($62 including tax) seemed a fair price for what was offered.I doubt that I would come back to this RRI, but on this trip I was trying to preserve cash, so it was the best option.More</t>
   </si>
   <si>
+    <t>Gary H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r207738786-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -621,6 +693,9 @@
     <t>The motel staff was accommodating, the room was satisfactory and the continental breakfast was OK.  The outward appearance of the establishment left a little to be desired.  I constantly had trouble with the internet and since I'm traveling on business, this was a concern.  One of the things I found most distasteful, although no fault of the motel, was the roaring noise of the freeway.  Fortunately the room was well sound proofed and it didn't keep me awake but when you stepped outside, the noise hit you like a brick!  There was some trouble on a couple of occasions where the room keys did not function and wouldn't let us into the gated parking lot or our room.  If you plan on staying for longer than a night or two, I'd look for someplace else.More</t>
   </si>
   <si>
+    <t>pranav257</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r199762189-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -651,6 +726,9 @@
     <t>This is a very nice hotel to stay.Location is also good &amp; the hotel is very clean &amp; quite.The Staff is very helpful &amp; co-operative.I must say that this hotel is a good place to stay in Dallas.I spent my holiday nicely due to the hotel &amp; the helpful staff. And i must say that whenever i am going to dallas again this is the only hotel i am going to stay......owsome.....More</t>
   </si>
   <si>
+    <t>Jimmy-Jigna P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r197258211-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -666,6 +744,9 @@
     <t xml:space="preserve">Staff r  so polite n feels goods to leave in under this red roof wid under budget ...any way again may stay  again whenever I get the chance to stay wid under red roof ....enjoyable weekend........may I recommend to other to stay this hotel specially for weekends </t>
   </si>
   <si>
+    <t>carlos r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r197172302-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -681,6 +762,9 @@
     <t>Clean room,good location,  and a few good looking maids jajajajajaja. Overall, i has a good stay. If your looking for a good spot to stay in Dallas, this is the place. This hotel has a real y good staff, polite and helpful. Im looking foward to returning foe another stay at this hotel.</t>
   </si>
   <si>
+    <t>ascentium</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r185569965-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -705,6 +789,9 @@
     <t>My family and I have stayed here on multiple occasions and all have been consistently pleasant and unproblematic.The staff are kind and friendly and the atmosphere quiet and quaint.It is indeed a nice place to stay...More</t>
   </si>
   <si>
+    <t>Niles R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r185445749-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -744,6 +831,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>Stephanie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r171257206-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -760,6 +850,9 @@
   </si>
   <si>
     <t>August 2013</t>
+  </si>
+  <si>
+    <t>keithandmissy</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r166223806-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
@@ -814,6 +907,9 @@
     <t>Not to critique another travelers review, but this place is no Ritz Carlton. I agree they have done a great job of cleaning this place up room by room. The desk staff has always been lovely and would try to meet a gusts needs within the limitations of an aging property.This last stay (May 2013) was my best yet, but there are still some systemic issues regarding the human and auto traffic and monitoring activity on and around the property.This place had been one of those Red Roof Inns I would tolerate because of the Redi Card program, location and price, but has a history of a pretty dicey clientele. It's certainly not the worst neighborhood north of Dallas, but seems to attract activity that would leave older people, an unaccompanied woman or a traveling professional uncomfortable.The room I got was up dated, well appointed and comfortable and the breakfast was better than most budget properties. A greater police presence will help and if they renovate more rooms like the one I had this time this place will go from the "tolerated" rating to a destination. I will be returning as long as they keep showing improvement.More</t>
   </si>
   <si>
+    <t>James R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r155458698-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -832,6 +928,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>74renegade</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r150613264-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -856,6 +955,9 @@
     <t>been here since november an still staying the staff is awsome always helpfull an friendly.i would alway stay here when im in town they have low rates great location right off freeway close to resturants an shopping centers an movie theater More</t>
   </si>
   <si>
+    <t>Corvette_Rob</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r147630201-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -874,6 +976,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>Maria M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r140123487-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -892,6 +997,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>Maria C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r140122439-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -910,6 +1018,9 @@
     <t>I am very pleased with my stay at Red Roof Inn. It has great and clean rooms and the workers at the front desk are always in a great mood! The front staff is always ready for any concerns. If you don't have Internet on your computer or other devices and your trying to get somewhere where there's wi-fi , you don't have to! That's another great thing , there's free wi-fi! If you run out of goodies or food just know that Red Roof Inn is close to Walmart too , and restaurants where you can have meetings with your bosses or co-workers. You can invite your family and have a nice dinner at one of the close by restaurants and don't have to worry about going anywhere far at all. I enjoyed my stay there , and if I did I am one-hundred you will too.More</t>
   </si>
   <si>
+    <t>Wrytr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r132073085-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -931,6 +1042,9 @@
     <t>I don't understand how anyone would think this hotel has been remodeled--it hasn't! Trust me--I'm a frequent guest at Red Roof Inns (RediCard holder) and I appreciate the many hotels they've remodeled recently--Laredo, Oklahoma City, Kansas City and others. But somehow the Dallas-Richardson location got left out of the funding pool. I asked for a nonsmoking room and was given a room that smelled sickeningly sweet, which I figured was to cover up dog odor, as the chain does allow dogs in the rooms. Gradually I realized the smell was an overdose of air freshener designed to cover up the smoke smell that grew stronger throughout the night until my skin was itching head to toe, my throat sweling, my eyes watering and my nose running. I couldn't sleep. I couldn't go barefoot either--the carpet was filthy. At 6am I went to the lobby for "breakfast"--a scant offering of leftover Entenman's rolls and soggy mini-muffins, with half a container of separated orange juice (also leftover, I presume), three cereals and a bit of milk, and half a carafe of coffee for the large number of guests who had checked in. There were apples, too. But the hotel is so dirty that I didn't want to touch anything not in a package, which meant no breakfast. When I got back to the room, the smoke smell was overwhelming. Then I remembered that I hadn't charged my cell phone, so I pulled...I don't understand how anyone would think this hotel has been remodeled--it hasn't! Trust me--I'm a frequent guest at Red Roof Inns (RediCard holder) and I appreciate the many hotels they've remodeled recently--Laredo, Oklahoma City, Kansas City and others. But somehow the Dallas-Richardson location got left out of the funding pool. I asked for a nonsmoking room and was given a room that smelled sickeningly sweet, which I figured was to cover up dog odor, as the chain does allow dogs in the rooms. Gradually I realized the smell was an overdose of air freshener designed to cover up the smoke smell that grew stronger throughout the night until my skin was itching head to toe, my throat sweling, my eyes watering and my nose running. I couldn't sleep. I couldn't go barefoot either--the carpet was filthy. At 6am I went to the lobby for "breakfast"--a scant offering of leftover Entenman's rolls and soggy mini-muffins, with half a container of separated orange juice (also leftover, I presume), three cereals and a bit of milk, and half a carafe of coffee for the large number of guests who had checked in. There were apples, too. But the hotel is so dirty that I didn't want to touch anything not in a package, which meant no breakfast. When I got back to the room, the smoke smell was overwhelming. Then I remembered that I hadn't charged my cell phone, so I pulled the night stand away from the wall to see if there was an outlet behind it. There was--along with a bunch of trash and a cigarette butt crushed into the carpet. Since I hadn't slept and checkout was at noon, I tried once more (they do have good blackout drapes) and managed to oversleep my alarm. I woke up at 12:06. Right away I called the front desk to ask for late checkout. "You can have until 12:30," the clerk said, and hung up. Apparently she forgot to tell the housekeeping staff, because they began pounding on my door and yelling for me to get out, and they continued throughout my very quick shower. I called back to the through the locked door, "Tengo permiso quedar hasta las doce y media"--"I have permission to stay until 12:30." Just as I was walking from the shower to the sink, completely naked, I heard more pounding and a man's voice tell me to get out. Then the man unlocked the door and pushed it open. I grabbed a hand towel and yelled, "Shut the door and go away or I will call the police." The man walked away, leaving the door open. I scrambled to shut and lock it, and since I could see they would not respect my late checkout time, and that they were able to unlock and open my door even with the security latch on, I didn't bother to dry off--just pulled my clothes on, threw my stuff into my bag and got out at 12:32. I went to the front desk to complain and to ask for my money back. The desk clerk was sympathetic and called the manager, Ginga, or something like that. She said there was nothing she could do. I had paid in cash and they refused to do anything to compensate for my horrible, smoky, sleepless night, the non-breakfast, and the abusive housekeeping staff. I have filed a report with Red Roof Inns and we will see if anything gets done. I would not stay at this particular Red Roof again--at least not until they remodel. Oh--by the way, as I was checking in, a guest came to the front desk asking for a vacuum cleaner. Later I saw him returning it and he said his room was jumping with fleas and he had vacuumed them up. The hotel didn't get him a different room--they just let him vacuum the fleas! Service doesn't get much worse than that. I agree that Brenda at the front desk, and a manager named Maria, are both very polite and professional but they both were ineffective at getting me any sort of restitution.More</t>
   </si>
   <si>
+    <t>Alicia G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r131352539-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -946,6 +1060,9 @@
     <t>I had a Spectacular stay! I've been there a couple of times before and always been treated great. First of all i arrived and was greeted kindly and helped with everything i needed and asked for, by the receptionist named Brenda. I arrived to a clean room,clean restroom clean pool, everything was great. They had a complimentary breakfast along with the stay, free wifi which was fast speed and great room service. They have many different restaurants and stores close by which helps alot, saves gas and time,its a great location.Hopefully ill be able to stay there again soon.</t>
   </si>
   <si>
+    <t>Norma C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r131217245-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -961,6 +1078,9 @@
     <t>I had a wonderful stay at this Reroof Inn in Richardson. They have done extensive renovation in the hotel. The hotel rooms are very nice and comfortable. Hotel staff is very professional and helpful. While our staying there my Husband got sick because of his poor health. The staff at the front was so helpful by finding nearest clinic and made an appointment for us. Hotel has Wal-Mart at very next door walk in distance which is really convenant.They have very nice continental breakfast also. I will definitely stay at this Hotel on my next Trip there.</t>
   </si>
   <si>
+    <t>garyjohnston</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r125815373-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -979,6 +1099,9 @@
     <t>March 2012</t>
   </si>
   <si>
+    <t>Theresa74</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r113106521-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1016,6 +1139,9 @@
   </si>
   <si>
     <t>March 2011</t>
+  </si>
+  <si>
+    <t>Tarfnar</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r97616778-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
@@ -1541,43 +1667,47 @@
       <c r="A2" t="n">
         <v>5195</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>175010</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -1597,50 +1727,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5195</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>175011</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
         <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1658,50 +1792,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5195</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>2192</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>61</v>
       </c>
-      <c r="J4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>59</v>
-      </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1715,50 +1853,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5195</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>2379</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1772,50 +1914,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5195</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>175012</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P6" t="n">
         <v>2</v>
@@ -1833,50 +1979,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5195</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>175013</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1890,50 +2040,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5195</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>34093</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -1953,50 +2107,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5195</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>175014</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -2014,50 +2172,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5195</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>103927</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2071,50 +2233,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5195</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>38416</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" t="s">
         <v>91</v>
-      </c>
-      <c r="O11" t="s">
-        <v>85</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2132,50 +2298,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5195</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>175015</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="O12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2189,50 +2359,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5195</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>101601</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="O13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2246,50 +2420,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>5195</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>152628</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="J14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="K14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="L14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="O14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2303,50 +2481,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>5195</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>175016</v>
+      </c>
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="J15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="K15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="L15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="O15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -2366,50 +2548,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>5195</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>44494</v>
+      </c>
+      <c r="C16" t="s">
+        <v>151</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="J16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="K16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -2429,50 +2615,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>5195</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>175017</v>
+      </c>
+      <c r="C17" t="s">
+        <v>159</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="J17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="K17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -2490,50 +2680,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>5195</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>175018</v>
+      </c>
+      <c r="C18" t="s">
+        <v>167</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="J18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="K18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2551,47 +2745,51 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="X18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="Y18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>5195</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>175019</v>
+      </c>
+      <c r="C19" t="s">
+        <v>176</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="J19" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="K19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
@@ -2618,56 +2816,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="X19" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="Y19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>5195</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>175020</v>
+      </c>
+      <c r="C20" t="s">
+        <v>182</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="J20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="K20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2687,50 +2889,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>5195</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>70122</v>
+      </c>
+      <c r="C21" t="s">
+        <v>189</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="J21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="K21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="O21" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -2750,50 +2956,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>5195</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>175021</v>
+      </c>
+      <c r="C22" t="s">
+        <v>196</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="J22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="O22" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2813,50 +3023,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>5195</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>175022</v>
+      </c>
+      <c r="C23" t="s">
+        <v>203</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="J23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="K23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2870,50 +3084,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>5195</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>175023</v>
+      </c>
+      <c r="C24" t="s">
+        <v>210</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="J24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="K24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="L24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -2937,50 +3155,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>5195</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>2993</v>
+      </c>
+      <c r="C25" t="s">
+        <v>218</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="J25" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="K25" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="L25" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="n">
         <v>2</v>
@@ -3004,50 +3226,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>5195</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>175024</v>
+      </c>
+      <c r="C26" t="s">
+        <v>225</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="J26" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="K26" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="L26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="O26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3069,47 +3295,51 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="X26" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="Y26" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>5195</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>175025</v>
+      </c>
+      <c r="C27" t="s">
+        <v>236</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="J27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="K27" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="L27" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
@@ -3128,50 +3358,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>5195</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>15000</v>
+      </c>
+      <c r="C28" t="s">
+        <v>242</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="J28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="K28" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="L28" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
@@ -3195,41 +3429,45 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>5195</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>175026</v>
+      </c>
+      <c r="C29" t="s">
+        <v>248</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="J29" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="K29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="L29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
@@ -3256,56 +3494,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="X29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="Y29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>5195</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>175027</v>
+      </c>
+      <c r="C30" t="s">
+        <v>257</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="J30" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="K30" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="L30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3327,56 +3569,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="X30" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="Y30" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>5195</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>44494</v>
+      </c>
+      <c r="C31" t="s">
+        <v>151</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="J31" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="K31" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="L31" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>3</v>
@@ -3400,50 +3646,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>5195</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>2559</v>
+      </c>
+      <c r="C32" t="s">
+        <v>271</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="J32" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="K32" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="L32" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="O32" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -3467,50 +3717,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>5195</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>175028</v>
+      </c>
+      <c r="C33" t="s">
+        <v>278</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="J33" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="K33" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="L33" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="O33" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
@@ -3534,50 +3788,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>5195</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>44494</v>
+      </c>
+      <c r="C34" t="s">
+        <v>151</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="J34" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="K34" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="L34" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -3599,56 +3857,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="X34" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="Y34" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>5195</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>2768</v>
+      </c>
+      <c r="C35" t="s">
+        <v>295</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="J35" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="K35" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="L35" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="M35" t="n">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -3672,41 +3934,45 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>5195</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>175029</v>
+      </c>
+      <c r="C36" t="s">
+        <v>302</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="J36" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="K36" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="L36" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
@@ -3733,56 +3999,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="X36" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="Y36" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>5195</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>175030</v>
+      </c>
+      <c r="C37" t="s">
+        <v>311</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="J37" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="K37" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="L37" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="O37" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -3806,50 +4076,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>5195</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>2053</v>
+      </c>
+      <c r="C38" t="s">
+        <v>318</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="J38" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="K38" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="L38" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="O38" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -3873,50 +4147,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>5195</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>6537</v>
+      </c>
+      <c r="C39" t="s">
+        <v>325</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="J39" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="K39" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="L39" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="O39" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -3940,50 +4218,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>5195</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>175031</v>
+      </c>
+      <c r="C40" t="s">
+        <v>332</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="J40" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="K40" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="L40" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="O40" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P40" t="n">
         <v>1</v>
@@ -4007,50 +4289,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>5195</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>55661</v>
+      </c>
+      <c r="C41" t="s">
+        <v>340</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="J41" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="K41" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="L41" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="O41" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
@@ -4074,50 +4360,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>5195</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>114679</v>
+      </c>
+      <c r="C42" t="s">
+        <v>346</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="J42" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="K42" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="L42" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="O42" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4141,50 +4431,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>5195</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>175032</v>
+      </c>
+      <c r="C43" t="s">
+        <v>352</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="J43" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="K43" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="L43" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="O43" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4208,50 +4502,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>5195</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>175033</v>
+      </c>
+      <c r="C44" t="s">
+        <v>359</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="J44" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="K44" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="L44" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="O44" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -4275,50 +4573,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>5195</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>175031</v>
+      </c>
+      <c r="C45" t="s">
+        <v>352</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="J45" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="K45" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="L45" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -4342,50 +4644,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>5195</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>175034</v>
+      </c>
+      <c r="C46" t="s">
+        <v>373</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="J46" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="K46" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="L46" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>1</v>
@@ -4409,7 +4715,7 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_641.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_641.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="531">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,90 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Chocolatescakes</t>
-  </si>
-  <si>
-    <t>06/16/2018</t>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r609942735-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>99375</t>
+  </si>
+  <si>
+    <t>609942735</t>
+  </si>
+  <si>
+    <t>08/24/2018</t>
+  </si>
+  <si>
+    <t>Nice location Fresh and nice outside corridor view</t>
+  </si>
+  <si>
+    <t>We plan to stay different property but wife told me we goon a stay here which is conivenent to everywhere and this property made us enjoyable stay, good service given by FD nice staff and helpful limited  breakfast they have but nice with cheap rate overview it’s was good stay cool room hope see you soon</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r563552465-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>563552465</t>
+  </si>
+  <si>
+    <t>03/01/2018</t>
+  </si>
+  <si>
+    <t>excellent stay with great value at Redroof inn</t>
+  </si>
+  <si>
+    <t>The room was clean and fresh and front desk clerk give me awesome room above the lobby Its was quite large room also good view of US 75 and also peace at night &amp;  staff was helpful take care , my plan to stay one night I just go walkin asked the price &amp; really liked that value so  stayed one more night in room 201 &amp; also next door Wal-Mart and restaurant ,whole stay was excellent hope we come back in future.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Karnail S, General Manager at Red Roof Inn Dallas-Richardson, responded to this reviewResponded March 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2018</t>
+  </si>
+  <si>
+    <t>The room was clean and fresh and front desk clerk give me awesome room above the lobby Its was quite large room also good view of US 75 and also peace at night &amp;  staff was helpful take care , my plan to stay one night I just go walkin asked the price &amp; really liked that value so  stayed one more night in room 201 &amp; also next door Wal-Mart and restaurant ,whole stay was excellent hope we come back in future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r563430971-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>563430971</t>
+  </si>
+  <si>
+    <t>02/28/2018</t>
+  </si>
+  <si>
+    <t>Save yourself the aggravation and stay elsewhere</t>
+  </si>
+  <si>
+    <t>I stayed in room 226. The chairs were worn to the point of when you sat in the chair you felt the frame. The office type chair had a large burn hole. The coffee maker heated up but didn't brew the coffee.Then to top it off, my daughter tries canceling her reservation because I wasn't going to let her stay in a substandard living area. She called one hour after 6:00 PM to cancel and was told there is nothing we can do. Once it turns 6:00 Pm it's considered a no show. This explains upon my late arrival why my card was already charged. So now I'm arguing with Red Roof corporate to get my daughters money back since it was reserved on my card. I've stayed at Red Roofs all over this country, but this was the very last one. When people from 3rd world countries start owning our hotels standards drop to unacceptable levels!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>I stayed in room 226. The chairs were worn to the point of when you sat in the chair you felt the frame. The office type chair had a large burn hole. The coffee maker heated up but didn't brew the coffee.Then to top it off, my daughter tries canceling her reservation because I wasn't going to let her stay in a substandard living area. She called one hour after 6:00 PM to cancel and was told there is nothing we can do. Once it turns 6:00 Pm it's considered a no show. This explains upon my late arrival why my card was already charged. So now I'm arguing with Red Roof corporate to get my daughters money back since it was reserved on my card. I've stayed at Red Roofs all over this country, but this was the very last one. When people from 3rd world countries start owning our hotels standards drop to unacceptable levels!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r528134319-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
-    <t>55711</t>
-  </si>
-  <si>
-    <t>99375</t>
-  </si>
-  <si>
     <t>528134319</t>
   </si>
   <si>
@@ -180,12 +249,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>JoeVanBiker</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r524760876-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -204,9 +267,6 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t>David M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r523259587-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -222,10 +282,37 @@
     <t>Solid Red Roof Inn.  Clean, secured parking and right across the street from Wal-Mart. Hotel is 15 minutes from downtown Dallas with a ton of resteraunts in the area. Nice pool but was closed for unknown reason. Enjoy</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Lisa S</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r477853256-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>477853256</t>
+  </si>
+  <si>
+    <t>04/21/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fantastic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I loved it here. Room was gorgeous, hardwood floors clean bathroom. Only complaint was there wasn't a remote for the TV but we went to desk and they gave us one no problem. Walmart right next door fantastic Denny's walking distance away. Will stay here again definitely </t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r476048659-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>476048659</t>
+  </si>
+  <si>
+    <t>04/16/2017</t>
+  </si>
+  <si>
+    <t>You could find better</t>
+  </si>
+  <si>
+    <t>With one notable exception, the staff seemed disinterested. Proximity to Walmart was a bonus. Everything in the room worked. Pillows were terrible - probably the worst Ive had in motel accommodation. The swimming pool was great!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r466076910-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
@@ -246,12 +333,6 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Marej50</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r465370193-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -273,9 +354,6 @@
     <t>We stayed at this Red Roof Inn because it was in close proximity to friends we were meeting for dinner and because Red Roof is pet friendly.Just be advised if you have a dog you will be put in a sub par room! Stain on the bedspread and the door had visible damage, light coming in at the top and bottom of the door. It was dirty, obviously the laminate floor had not been wet mopped in a while. The beds were comfy but cleanliness of the spread and blanket was questionable. Toilet was loose at the base.Maybe if you don't have a pet you get a better room but I doubt it. Also had a security gate you opened with your key card to drive to your room. Kinda scary! We also had to call the desk twice due to neighbors playing loud music with booming bass. I would skip this place and find something better!!More</t>
   </si>
   <si>
-    <t>Laney  F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r464607718-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -294,7 +372,46 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Nicole G</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r455041135-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>455041135</t>
+  </si>
+  <si>
+    <t>01/26/2017</t>
+  </si>
+  <si>
+    <t>Red Roof Richardson... I Like This One</t>
+  </si>
+  <si>
+    <t>After My last experience with Red Roof I was truly leary of going back to one,  But I kept thinking that if they were so great about their pet policy and I loved the rooms and the service I got before.  I would try another one. Last night I had not gotten any work since the back injury and red roof Addison.  I knew that I had 3 free nights available thru their company so I called and booked a room.  We got there and the front desk girl was sweet and very easy to work with.  She gave us a room on the bottom floor.... As usual the room was lovely, clean, and roomy.  Funny thing is after we checked in there there was a huge power outage for the rest of the night.  But that was not their fault and we stayed comfortable.I went this morning and asked for the manager because I wanted to tell her personally what a nice staff she had and to let her know that I was looking at the hotel in a separate light from what I had experienced in Addison.  I took pictures of the picture and lamp to show they were fine in my care and even the iron...read prior review to see what I am talking about.Oh and the housekeeping staff very nice and helped when I asked for it.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>After My last experience with Red Roof I was truly leary of going back to one,  But I kept thinking that if they were so great about their pet policy and I loved the rooms and the service I got before.  I would try another one. Last night I had not gotten any work since the back injury and red roof Addison.  I knew that I had 3 free nights available thru their company so I called and booked a room.  We got there and the front desk girl was sweet and very easy to work with.  She gave us a room on the bottom floor.... As usual the room was lovely, clean, and roomy.  Funny thing is after we checked in there there was a huge power outage for the rest of the night.  But that was not their fault and we stayed comfortable.I went this morning and asked for the manager because I wanted to tell her personally what a nice staff she had and to let her know that I was looking at the hotel in a separate light from what I had experienced in Addison.  I took pictures of the picture and lamp to show they were fine in my care and even the iron...read prior review to see what I am talking about.Oh and the housekeeping staff very nice and helped when I asked for it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r449028765-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>449028765</t>
+  </si>
+  <si>
+    <t>01/03/2017</t>
+  </si>
+  <si>
+    <t>Noisy New Year's Eve</t>
+  </si>
+  <si>
+    <t>Oh dear me. We are hesitant to blame the Red Roof Inn for the conduct of their guests. Also we understand that we never brought the problem to their attention, but honestly we were more than a little afraid to...Travelling across the US on a budget, we were worried about NYE. A party night for some, it was just a night to watch Anderson and Kathy for us. All was well until 3:30 am. We had been sleeping four hours by then and we're awoken by the loudest of phone calls, on speaker phone no less, in the hotel room that was through the door on our back wall. Red Roof Inn just can't have that much call for travellers wanting adjoining rooms. Spend the money and wall em up.After the LOUD phone call there were the hours of loud music, no LOUD music.We got out of there at first light.The staff were fine.The room, the beds and the bathroom were OK.The neighbours were from hell.MoreShow less</t>
+  </si>
+  <si>
+    <t>Oh dear me. We are hesitant to blame the Red Roof Inn for the conduct of their guests. Also we understand that we never brought the problem to their attention, but honestly we were more than a little afraid to...Travelling across the US on a budget, we were worried about NYE. A party night for some, it was just a night to watch Anderson and Kathy for us. All was well until 3:30 am. We had been sleeping four hours by then and we're awoken by the loudest of phone calls, on speaker phone no less, in the hotel room that was through the door on our back wall. Red Roof Inn just can't have that much call for travellers wanting adjoining rooms. Spend the money and wall em up.After the LOUD phone call there were the hours of loud music, no LOUD music.We got out of there at first light.The staff were fine.The room, the beds and the bathroom were OK.The neighbours were from hell.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r436260456-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
@@ -318,9 +435,6 @@
     <t>I have been here for almost a year with my family, and the maid service is horrible. They should come twice a week and NEVER COME, so I am left with a pile of blankets and towels for two weeks. I asked nicely for them to over and over again and they never show.  They have only shown to change the towels and blankets a few times since I have been here. A lot of the rooms leak when it rains, the air works, but heat doesn't. There is only one working washing machine, and the vending machine hasn't worked in months .  They do have a small breakfast, not much to it but good enough for the kids. The weekly price is the best in the area, and is spacey  with two beds.  It is pretty quiet. No one bothers us. There are mostly business people and families that stay here. They do have a pool that usually stays clean in the summertime and the office people are nice. Internet was very slow, but it has improved . My only real complaint is with the maid service, otherwise not bad for the price.More</t>
   </si>
   <si>
-    <t>ambati k</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r415491144-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -339,9 +453,6 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t>Sherry N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r405075315-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -363,7 +474,34 @@
     <t>Upon checking I came to gate that seems to barely work and see huge warning signs of hiding your stuff and locking your car etc....The hotel grounds are dirty dog poop everywhere.   Get to the room, 242, to walk in to a room that smelled like pot.  Walls were covered in mold.    Pull the comforter back to check the bed (very important in hotels) sheets looked used wrinkled etc.   Then lifted the mattress to find a used condom and nasty stains on the bed skirt!   I went to the front desk and the lady was so rude would not check me out said I had used the bed.   Refused to give me a refund acted as though she didn't care this hotel is in such awful shape and breaking all sorts of codes with the used condom and stains!!  DO NOT STAY HERE.More</t>
   </si>
   <si>
-    <t>Janice S</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r374687265-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>374687265</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>"Real good Value for money in Dallas"</t>
+  </si>
+  <si>
+    <t>The property is presentable and neat.Check in is fast (as was the check-out).The rooms are recently refurbished and reasonable size The staff are friendly and helpful. Speak to the concierge about a 10% discount. The good denny restaurant in front to the hotel seves good food  (not more expensive ).We stayed in Rooms 227 at the end of the passage and awesome place to stay and with safe parking and Good internet to see HD movie live streaming .Overall, a good place to stay, with a fairly upmarket feel yet at a fair price....</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r373851533-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>373851533</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Get what you pay for</t>
+  </si>
+  <si>
+    <t>The lady at the front desk was nice, but it would have been really nice if she explained a few things; when breakfast was, what WiFi network to connect to (there were like 7 of them) and what the password was. The room was nice. Our bathroom was alright. The toilet was not clean at all. eg. There were spots all over it.. It wasn't bad, but if you want/need more reliable internet then I wouldn't connect and just use your own data. But like I said, you get what you pay for. If I pass through again, I might stay here.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r373451643-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
@@ -384,9 +522,6 @@
     <t>I stayed one night at this hotel and was told it was very safe because the parking is gated.  When I parked to go in my room,  I noticed several people outside their hotel rooms hanging out on the balcony.  I was on the bottom floor, and there was a man sitting on his car in front of my room talking on the cell phone the entire time I was unloading my belongings and going in and out of the room.  It was quire scary.  The next morning, the same man was outside my room at 6:00 am talking on his cell phone.  I got up and dressed for breakfast.  I had a muffin, banana and a glass of what tasted like orange Kool aid.  I don't plan to stay there againMore</t>
   </si>
   <si>
-    <t>xmeganjx</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r362535706-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -405,9 +540,6 @@
     <t>April 2016</t>
   </si>
   <si>
-    <t>Fellipe R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r357567347-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -426,7 +558,37 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t>Mario B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r350590088-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>350590088</t>
+  </si>
+  <si>
+    <t>02/24/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greatly Exceeded Expectations </t>
+  </si>
+  <si>
+    <t>We had been on the road for hours in rain, and decided to call it. The staff was swift and courteous. The rooms well appointed and as ckean as any 4 star facility. Large flat screen, larger mini-fridge with separate freezer area. And a cook area with a two spot induction heating surface.Nice wood look flooring, decent counters and raised sink basin and well functioning heat/air unit in the wall.  Controlled access parking as well.And the beds, oh my, comfortable doesn't do the beds justice at all.I see more stays in my future on return trips.Easy access and near 635. Made getting gone in the morning down right sweet.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r350348760-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>350348760</t>
+  </si>
+  <si>
+    <t>02/23/2016</t>
+  </si>
+  <si>
+    <t>"Clean and Pet friendly "</t>
+  </si>
+  <si>
+    <t>This hotel was perfect for the pet friendly and felt fresh.i needed wifi and it's available with no extra charge ,and also new bathrooms and tubs also a new furniture more parking space for long vehicle and perfect location few miles away from downtown and I recommended to stay this hotel !!!!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r344158594-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
@@ -444,12 +606,6 @@
     <t>This is a good place to stay for a few nights. The rooms were clean, the bed was comfortable, and the government discount helps (saved $20). There was a "antique smell" but a candle fixed that up within the hour. The only downfall I see is the room having paper-thin walls. Having the Denny's across the parking lot made for a quick and convenient meal. The staff was helpful too; especially with the perpetually failing key card that all hotels have. Other than that I have nothing negative to say about it. Though keep in mind I'm only speaking for the non-smoking King/business room. I hope this review helps.</t>
   </si>
   <si>
-    <t>February 2016</t>
-  </si>
-  <si>
-    <t>bshondo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r338792749-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -471,9 +627,6 @@
     <t>The rooms are in need of  repair. Our door had atleast a 1/2" gap. There was a small roach on our floor that did not get swept up the next day. There was also a roach that was 3" long on the bathroom floor. They also left it. The breakfast was so limited. They didn't keep things stocked as people ate, so there was basically nothing for us to have at 9am. They pick up everything early. I wrote a review to hotels.com and they refused to post what I wrote. So I am posting this so my trip advisor friends don't go there. And the walls are extremely thin. It is a very old hotel that La Quinta owned a few years ago. Nothing has been upgraded. Don't waist your money. And I will never use hotels.com again.More</t>
   </si>
   <si>
-    <t>Mitch P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r275045405-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -495,7 +648,49 @@
     <t>I have been staying at this location for years more out of proximity to where I work when in the area and have to give them high marks in maintaining and improving their offering.Bassed on prior stays I was almost dreading the uncertanty of arriving late with no last minute alternatives. After being so pleasantly surprised I slept very well for all 6 nights there.It looks like they managed to reduce the noise and undesirables that used to just hang out there while keeping the prices in line.All the ammenities worked, the bed was firm and balanced and no somke and cover up spray smell like on previous stays.The only drawback was the sluggish internet. I look forward to returning.More</t>
   </si>
   <si>
-    <t>JBurson25</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r270633089-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>270633089</t>
+  </si>
+  <si>
+    <t>05/07/2015</t>
+  </si>
+  <si>
+    <t>Fantastic stay in renovated room</t>
+  </si>
+  <si>
+    <t>The staff is super friendly and extremely helpful. They are also renovating rooms with beautiful hardwood flooring, plasma TVs, and completely replacing every item in the bathroom including the sheetrock walls. The remainder of each room is getting new paint, new furniture, and new light fixtures. I believe nearly all the rooms are finished.I appreciated the included light breakfast as that helped me get a good start to my day. But, if you wanted, a Denny's is right next door, or an IHOP is a few minutes away.The pool is nice, and pets are welcome. The business center was good, and I was thankful I could use it. The free Wi-Fi was easy to use, and it saved me a ton of data use.The location is excellent. Wal-Mart is VERY close if you need anything, including groceries. Bus service is just around the corner and easy to use. Or, major freeways I-635 and State Highway 75 are very close by.All around it's a great place. They do their best to make your experience very enjoyable. I'll definitely stay there again.--Jim SouderMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Karnail S, General Manager at Red Roof Inn Dallas-Richardson, responded to this reviewResponded May 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2015</t>
+  </si>
+  <si>
+    <t>The staff is super friendly and extremely helpful. They are also renovating rooms with beautiful hardwood flooring, plasma TVs, and completely replacing every item in the bathroom including the sheetrock walls. The remainder of each room is getting new paint, new furniture, and new light fixtures. I believe nearly all the rooms are finished.I appreciated the included light breakfast as that helped me get a good start to my day. But, if you wanted, a Denny's is right next door, or an IHOP is a few minutes away.The pool is nice, and pets are welcome. The business center was good, and I was thankful I could use it. The free Wi-Fi was easy to use, and it saved me a ton of data use.The location is excellent. Wal-Mart is VERY close if you need anything, including groceries. Bus service is just around the corner and easy to use. Or, major freeways I-635 and State Highway 75 are very close by.All around it's a great place. They do their best to make your experience very enjoyable. I'll definitely stay there again.--Jim SouderMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r260874424-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>260874424</t>
+  </si>
+  <si>
+    <t>03/21/2015</t>
+  </si>
+  <si>
+    <t>Owsome place to stay</t>
+  </si>
+  <si>
+    <t>Staff is very cooperative and helpful.Rooms are very nice and clean.i like this hotel so much that every time I visit texas this is the only hotel I m going to stay and more to it I m going to suggest my friends  to stay their.staff member are helping in all manner.So I give this hotel 5 out of 5.Thanks to the staff .</t>
+  </si>
+  <si>
+    <t>March 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r260329473-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
@@ -513,15 +708,9 @@
     <t>I have reserved one night at this hotel for my business trip, I have reach at 4 PM and staff was very friendly when I have done process of check in , they have given me a lots of information to visit after I finish my business meeting, It was very nice room and as per review on this hotel was wrong from my opinion , I haven't found anything wrong, even i have extended my stay one more day at this hotel then I have actually been at Firewheel golf park with some colleague then i have visited Galleria Mall was near and nice, More options for lunch and Dinner I would say that It would be great in that much price amazing stay and close to DownTown even its actually near Univ Texas, I have enjoy my stay and during that haven't heard or haven't found anything wrong with staff or hotel or room , Overall Nice .. Visit again ..! Recommended to Others for Dallas DownTwon in great price and rooms !MoreShow less</t>
   </si>
   <si>
-    <t>March 2015</t>
-  </si>
-  <si>
     <t>I have reserved one night at this hotel for my business trip, I have reach at 4 PM and staff was very friendly when I have done process of check in , they have given me a lots of information to visit after I finish my business meeting, It was very nice room and as per review on this hotel was wrong from my opinion , I haven't found anything wrong, even i have extended my stay one more day at this hotel then I have actually been at Firewheel golf park with some colleague then i have visited Galleria Mall was near and nice, More options for lunch and Dinner I would say that It would be great in that much price amazing stay and close to DownTown even its actually near Univ Texas, I have enjoy my stay and during that haven't heard or haven't found anything wrong with staff or hotel or room , Overall Nice .. Visit again ..! Recommended to Others for Dallas DownTwon in great price and rooms !More</t>
   </si>
   <si>
-    <t>Feng M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r259506367-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -546,9 +735,6 @@
     <t>This is the worst (not arguably!) place I have ever stayed.  The room is dirty, the sheets are dirty and I found some hairs on the sheets.  There seems no sound proof; I can hear people talking in other rooms and somebody's flushing of toilet woke me up--to write this review.  I have booked two nights' stay and now I cannot wait for the morning to check out.More</t>
   </si>
   <si>
-    <t>EmDixon</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r259400480-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -564,7 +750,40 @@
     <t>We had booked a non-smoking room.  When we got to our room there was an ash tray and the room had a strong smoke odor. Not only that but there was toilet paper in the peep hole and the curtains had been thumb tacked to the wall. This was after midnight when we arrived and we had to move to another room that was non-smoking. That room was better.  At 3 am someone knocked on our door and then the hotel clerk called us to see if we had a visitor. Needless to say we didn't sleep much after that ordeal.  We were excited because they offered free continental breakfast until we saw it. There was just a little cereal. Thank goodness there was a Denny's next door.  We spent $80 for this experience. More</t>
   </si>
   <si>
-    <t>leavonne</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r258412395-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>258412395</t>
+  </si>
+  <si>
+    <t>03/08/2015</t>
+  </si>
+  <si>
+    <t>Great location and tremendous value!</t>
+  </si>
+  <si>
+    <t>I needed a Motel in the Richardson area that would accept pets and this Red Roof Inn was the only one I could find.  I was pleasantly surprised to see the nightly rate was half as much as all the surrounding hotels!  The location, near a major intersection of freeways, is very convenient to the local businesses and is an ideal location for business travelers.  The motel is old, but well maintained and the room was newly refurbished and very clean.  I did not take advantage of the breakfast in the lobby, but it looked very sparse.  A big advantage is the Denny's in the parking lot!  If you need a no frills, affordable place to stay in the Northeast DFW area, this place is ideal.MoreShow less</t>
+  </si>
+  <si>
+    <t>I needed a Motel in the Richardson area that would accept pets and this Red Roof Inn was the only one I could find.  I was pleasantly surprised to see the nightly rate was half as much as all the surrounding hotels!  The location, near a major intersection of freeways, is very convenient to the local businesses and is an ideal location for business travelers.  The motel is old, but well maintained and the room was newly refurbished and very clean.  I did not take advantage of the breakfast in the lobby, but it looked very sparse.  A big advantage is the Denny's in the parking lot!  If you need a no frills, affordable place to stay in the Northeast DFW area, this place is ideal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r248767487-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>248767487</t>
+  </si>
+  <si>
+    <t>01/11/2015</t>
+  </si>
+  <si>
+    <t>Not very clean</t>
+  </si>
+  <si>
+    <t>Stop here on our way to Galveston. The price was right but the room was not very clean. A reddish stain on the bed spread and a pillow case. And there was tinkle sprinkle on the tile next to the commode when we arrived. Hotel was a bit run down and could definitely use some maintenance</t>
+  </si>
+  <si>
+    <t>January 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r247456931-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
@@ -582,12 +801,6 @@
     <t>this property is not a good place to stay had to change rooms twice the room had mold on the floor bathroom door had a whole in it 2nd room was ok until they wanted me to give them my credit card for a room that they upgraded me to.</t>
   </si>
   <si>
-    <t>January 2015</t>
-  </si>
-  <si>
-    <t>wendywuredhill</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r234199325-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -606,9 +819,6 @@
     <t>September 2014</t>
   </si>
   <si>
-    <t>elaine k</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r227907665-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -627,7 +837,40 @@
     <t>I stayed in this hotel for 1 night and it was one night too long.The bathroom was horrible, cracks in tub, the wall looked asif it needed plastering and painting, apparently towel barsripped out or something. The room should never have beenrented out in that condition. The front desk staff were incompetent,to say the least and rude on top of that. I never could get theinternet to work and the incompetent lobby staff were cluelessas to why it did not work. There was piles and piles of trash everywhere in the parking lot, I have never seen such a mess.With all the people behind the front desk, maybe one of themshould go and pick up some trash. I took pictures to show the horriblecondition of this property but can not figure out how to unload it.I took pictures of the staff as well. Corporate office should really takea good look at what is going on at their property. It is pitiful.More</t>
   </si>
   <si>
-    <t>Geowens</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r225723327-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>225723327</t>
+  </si>
+  <si>
+    <t>08/31/2014</t>
+  </si>
+  <si>
+    <t>"""Great experience""</t>
+  </si>
+  <si>
+    <t>This is a great place to stay. Not a single complaint at all during my stay. I will definitely return to this hotel when in the area in the future.This is one of the nicest redroof inn ...I would absolutely recommend this hotel based on my experience and thanks to manager gives us excellent services ...</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r223724720-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>223724720</t>
+  </si>
+  <si>
+    <t>08/22/2014</t>
+  </si>
+  <si>
+    <t>"Very Nice Stay"</t>
+  </si>
+  <si>
+    <t>All the staff were very professional and nice. The room was very clean and the noise level was very low. Keep up the good work and I hope there will be the right improvements in the future. I needed a room in an emergency situation and Red Roof came through for me.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r209496257-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
@@ -648,9 +891,6 @@
     <t>June 2014</t>
   </si>
   <si>
-    <t>MTIndiana</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r208241460-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -672,9 +912,6 @@
     <t>This Red Roof Inn has a very Spanish decor outside, in keeping with the Dallas location. I always get a Superior King room, but this one disappointed. The people loitering outside making noise when I checked in (about 9 PM) was uncomfortable. I am a woman business traveler.  I turned on the TV in order to not hear it. This room was skimpy on desk space, no easy chair, no coffee maker, skimpy on lighting. It showed wear and hard use. The management did provide a clean room, but it needed a renovation.On the positive side, the staff was friendly. The internet worked well.  And the Denny's next door was very handy for breakfast. The price ($62 including tax) seemed a fair price for what was offered.I doubt that I would come back to this RRI, but on this trip I was trying to preserve cash, so it was the best option.More</t>
   </si>
   <si>
-    <t>Gary H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r207738786-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -693,7 +930,43 @@
     <t>The motel staff was accommodating, the room was satisfactory and the continental breakfast was OK.  The outward appearance of the establishment left a little to be desired.  I constantly had trouble with the internet and since I'm traveling on business, this was a concern.  One of the things I found most distasteful, although no fault of the motel, was the roaring noise of the freeway.  Fortunately the room was well sound proofed and it didn't keep me awake but when you stepped outside, the noise hit you like a brick!  There was some trouble on a couple of occasions where the room keys did not function and wouldn't let us into the gated parking lot or our room.  If you plan on staying for longer than a night or two, I'd look for someplace else.More</t>
   </si>
   <si>
-    <t>pranav257</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r207585275-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>207585275</t>
+  </si>
+  <si>
+    <t>Always gets better</t>
+  </si>
+  <si>
+    <t>I've stayed in plenty of red roof throughout Texas this one is the best they have updated all there rooms the customer service is always good when I'm in Dallas this is where I will stay they're very courteous and helpful I called with last minute reservations and make sure to accommodate me</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r202139256-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>202139256</t>
+  </si>
+  <si>
+    <t>04/21/2014</t>
+  </si>
+  <si>
+    <t>"GREAT SERVICE"</t>
+  </si>
+  <si>
+    <t>We stayed here for 3 weeks while we waited for our house to be ready. We appreciated that pets were free and there is a large grassy area to walk them.The staff is very helpful.The hotel is still under renovation.The mgmt taking care GUEST.The breakfast is ok..The staff was great, helpful and friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Karnail S, Manager at Red Roof Inn Dallas-Richardson, responded to this reviewResponded April 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for 3 weeks while we waited for our house to be ready. We appreciated that pets were free and there is a large grassy area to walk them.The staff is very helpful.The hotel is still under renovation.The mgmt taking care GUEST.The breakfast is ok..The staff was great, helpful and friendly.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r199762189-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
@@ -711,12 +984,6 @@
     <t>This is a very nice hotel to stay.Location is also good &amp; the hotel is very clean &amp; quite.The Staff is very helpful &amp; co-operative.I must say that this hotel is a good place to stay in Dallas.I spent my holiday nicely due to the hotel &amp; the helpful staff. And i must say that whenever i am going to dallas again this is the only hotel i am going to stay......owsome.....MoreShow less</t>
   </si>
   <si>
-    <t>March 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Karnail S, Manager at Red Roof Inn Dallas-Richardson, responded to this reviewResponded April 4, 2014</t>
   </si>
   <si>
@@ -726,9 +993,6 @@
     <t>This is a very nice hotel to stay.Location is also good &amp; the hotel is very clean &amp; quite.The Staff is very helpful &amp; co-operative.I must say that this hotel is a good place to stay in Dallas.I spent my holiday nicely due to the hotel &amp; the helpful staff. And i must say that whenever i am going to dallas again this is the only hotel i am going to stay......owsome.....More</t>
   </si>
   <si>
-    <t>Jimmy-Jigna P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r197258211-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -744,9 +1008,6 @@
     <t xml:space="preserve">Staff r  so polite n feels goods to leave in under this red roof wid under budget ...any way again may stay  again whenever I get the chance to stay wid under red roof ....enjoyable weekend........may I recommend to other to stay this hotel specially for weekends </t>
   </si>
   <si>
-    <t>carlos r</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r197172302-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -762,7 +1023,43 @@
     <t>Clean room,good location,  and a few good looking maids jajajajajaja. Overall, i has a good stay. If your looking for a good spot to stay in Dallas, this is the place. This hotel has a real y good staff, polite and helpful. Im looking foward to returning foe another stay at this hotel.</t>
   </si>
   <si>
-    <t>ascentium</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r197042733-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>197042733</t>
+  </si>
+  <si>
+    <t>03/11/2014</t>
+  </si>
+  <si>
+    <t>Major Improvement!</t>
+  </si>
+  <si>
+    <t>I've stayed here in the past since the location is perfect for my Dallas trip, and the newly renovated rooms look great. My room had a flat screen TV, new furniture, a comfy king size bed,fast wifi, and a new floor. I also noticed a couple new faces at the front desk since my last trip, and the new gate and lights in the parking lot are a plus as well. The lobby also received some updates as well. I noticed they have a couple of vending machines and a laundry area for guests to use. There is also a Denny's in the parking lot as well as a Walmart next door. Overall I really enjoyed my stay and will be back again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>I've stayed here in the past since the location is perfect for my Dallas trip, and the newly renovated rooms look great. My room had a flat screen TV, new furniture, a comfy king size bed,fast wifi, and a new floor. I also noticed a couple new faces at the front desk since my last trip, and the new gate and lights in the parking lot are a plus as well. The lobby also received some updates as well. I noticed they have a couple of vending machines and a laundry area for guests to use. There is also a Denny's in the parking lot as well as a Walmart next door. Overall I really enjoyed my stay and will be back again in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r191271786-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>191271786</t>
+  </si>
+  <si>
+    <t>01/18/2014</t>
+  </si>
+  <si>
+    <t>Poor for the price</t>
+  </si>
+  <si>
+    <t>My boyfriend and I spent a weekend at this location. For what you are paying, it's not an improvement at all over a Motel 6 or Super 8. There was a strong must when we first walked in in spite of the fact that it is allegedly non-smoking. I had to wipe dust off on my pants within two minutes of being in the room from the deadbolt on the door that evidently was not touched often (or cleaned properly.) The fixtures in bathroom had sealant that was dingy and cracked and showed its age well. The bathroom door does not even close! It can be pushed open from the outside without even touching the door knob. There are strange flecks of paint all over the desk provided for the advertised "workspace." The room in general is very small, the bed is smaller than most king sizes, and the aforementioned desk has barely any space on it. The room was furnished with a large CRT; this isn't something I'm usually concerned with, but it was a bit offputting after staying at a clearly much older motel that still had a nice sized flat screen.I just spent a nice weekend the week before at a Super 8, which was much cheaper and also nicer. Over all, I immediately regretted choosing this motel over the one I stayed in last weekend.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>My boyfriend and I spent a weekend at this location. For what you are paying, it's not an improvement at all over a Motel 6 or Super 8. There was a strong must when we first walked in in spite of the fact that it is allegedly non-smoking. I had to wipe dust off on my pants within two minutes of being in the room from the deadbolt on the door that evidently was not touched often (or cleaned properly.) The fixtures in bathroom had sealant that was dingy and cracked and showed its age well. The bathroom door does not even close! It can be pushed open from the outside without even touching the door knob. There are strange flecks of paint all over the desk provided for the advertised "workspace." The room in general is very small, the bed is smaller than most king sizes, and the aforementioned desk has barely any space on it. The room was furnished with a large CRT; this isn't something I'm usually concerned with, but it was a bit offputting after staying at a clearly much older motel that still had a nice sized flat screen.I just spent a nice weekend the week before at a Super 8, which was much cheaper and also nicer. Over all, I immediately regretted choosing this motel over the one I stayed in last weekend.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r185569965-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
@@ -789,9 +1086,6 @@
     <t>My family and I have stayed here on multiple occasions and all have been consistently pleasant and unproblematic.The staff are kind and friendly and the atmosphere quiet and quaint.It is indeed a nice place to stay...More</t>
   </si>
   <si>
-    <t>Niles R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r185445749-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -831,7 +1125,46 @@
     <t>November 2013</t>
   </si>
   <si>
-    <t>Stephanie M</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r180335158-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>180335158</t>
+  </si>
+  <si>
+    <t>10/09/2013</t>
+  </si>
+  <si>
+    <t>"Good Value"</t>
+  </si>
+  <si>
+    <t>We've stayed at this hotel several times and never been disappointed with the customer service. The staff is always willing to help. Love it! The rates are always good, too. And there's a WalMart nearby if you need anything.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r178688250-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>178688250</t>
+  </si>
+  <si>
+    <t>09/26/2013</t>
+  </si>
+  <si>
+    <t>Red Roof Richardson= Worse than Zambian mud hut</t>
+  </si>
+  <si>
+    <t>I've lived in Zambia a few years back while working for PC. I had this mud hut that had cockroaches, but the bats would eat them. I had noisy goats outside, but my nice neighbors would shoo them away. My closest water was a well 1km away.I'm not saying that the RR was this bad, but I'll never come back, I'm also suggesting no one take the risk to come here, the other negative comments  people have added tell the tale.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Karnail S, General Manager at Red Roof Inn Dallas-Richardson, responded to this reviewResponded September 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2013</t>
+  </si>
+  <si>
+    <t>I've lived in Zambia a few years back while working for PC. I had this mud hut that had cockroaches, but the bats would eat them. I had noisy goats outside, but my nice neighbors would shoo them away. My closest water was a well 1km away.I'm not saying that the RR was this bad, but I'll never come back, I'm also suggesting no one take the risk to come here, the other negative comments  people have added tell the tale.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r171257206-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
@@ -850,9 +1183,6 @@
   </si>
   <si>
     <t>August 2013</t>
-  </si>
-  <si>
-    <t>keithandmissy</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r166223806-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
@@ -907,7 +1237,50 @@
     <t>Not to critique another travelers review, but this place is no Ritz Carlton. I agree they have done a great job of cleaning this place up room by room. The desk staff has always been lovely and would try to meet a gusts needs within the limitations of an aging property.This last stay (May 2013) was my best yet, but there are still some systemic issues regarding the human and auto traffic and monitoring activity on and around the property.This place had been one of those Red Roof Inns I would tolerate because of the Redi Card program, location and price, but has a history of a pretty dicey clientele. It's certainly not the worst neighborhood north of Dallas, but seems to attract activity that would leave older people, an unaccompanied woman or a traveling professional uncomfortable.The room I got was up dated, well appointed and comfortable and the breakfast was better than most budget properties. A greater police presence will help and if they renovate more rooms like the one I had this time this place will go from the "tolerated" rating to a destination. I will be returning as long as they keep showing improvement.More</t>
   </si>
   <si>
-    <t>James R</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r158076978-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>158076978</t>
+  </si>
+  <si>
+    <t>04/17/2013</t>
+  </si>
+  <si>
+    <t>Always choose Redroof at Richardson!!
+Awesome</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 days and I don't feel like leaving at all. Very nice rooms in a decent price. Front desk clerks are very helpful. Housekeepers do a great job in cleaning the room. Will stay here every time I need to come to dallas! Highly recommend this motel. Don't listen to liers...MoreShow less</t>
+  </si>
+  <si>
+    <t>Karnail S, General Manager at Red Roof Inn Dallas-Richardson, responded to this reviewResponded April 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 days and I don't feel like leaving at all. Very nice rooms in a decent price. Front desk clerks are very helpful. Housekeepers do a great job in cleaning the room. Will stay here every time I need to come to dallas! Highly recommend this motel. Don't listen to liers...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r155518869-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>155518869</t>
+  </si>
+  <si>
+    <t>03/24/2013</t>
+  </si>
+  <si>
+    <t>Hideous</t>
+  </si>
+  <si>
+    <t>This was truly THE worst stay I've ever had. The front desk people, they're fine. The vagrants around the place, along with the sketchy area, the disgusting rooms, the obnoxious idiots in their cars outside the hotel playing their music at un-Godly levels at 2-3AM in the morning!(Hello?! There's a 24 Denny's in the parking lot!! Beware!!) This place is like a half-way house or transient-infested motel that caters to people on the verge. And if you stay here, you too will be on the verge of turning into a vigilante mass-murderer. Best to sleep in your car or on a park bench and freshen up at the closest fast food bathroom in the morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>This was truly THE worst stay I've ever had. The front desk people, they're fine. The vagrants around the place, along with the sketchy area, the disgusting rooms, the obnoxious idiots in their cars outside the hotel playing their music at un-Godly levels at 2-3AM in the morning!(Hello?! There's a 24 Denny's in the parking lot!! Beware!!) This place is like a half-way house or transient-infested motel that caters to people on the verge. And if you stay here, you too will be on the verge of turning into a vigilante mass-murderer. Best to sleep in your car or on a park bench and freshen up at the closest fast food bathroom in the morning.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r155458698-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
@@ -925,12 +1298,6 @@
     <t>The furniture in the room was very old and dated and not the standard Red Roof Inn style furniture.   This must have been another chain at one time and they kept the old furniture.   The carpet was worn and stained. The area was also quite noisy.   All night long all I heard was noisy hotel guests in the lot and passing police car sirens</t>
   </si>
   <si>
-    <t>March 2013</t>
-  </si>
-  <si>
-    <t>74renegade</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r150613264-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -955,9 +1322,6 @@
     <t>been here since november an still staying the staff is awsome always helpfull an friendly.i would alway stay here when im in town they have low rates great location right off freeway close to resturants an shopping centers an movie theater More</t>
   </si>
   <si>
-    <t>Corvette_Rob</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r147630201-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -976,7 +1340,49 @@
     <t>July 2012</t>
   </si>
   <si>
-    <t>Maria M</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r142553128-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>142553128</t>
+  </si>
+  <si>
+    <t>10/11/2012</t>
+  </si>
+  <si>
+    <t>**** NEVER AGAIN ****</t>
+  </si>
+  <si>
+    <t>SOOO, I was in Dallas for the state fair the weekend of 10-5 thur 10-7 !! The room was nasty and sheets were dirty !! When i went to the front for new sheets the lady told me she couldnt get into the housingkeeping room !! OK , then when we woke up we didnt have any toilet paper soo once again i walk to the office and asked for some, lady behind the counter stated the manager didnt order any so they were out !! NOT ONLY DID WE HAVE DIRTY SHEETES NOW NO TOILET PAPER, WHEN I ASKED FOR A REFUND, SHE SAID SHE COULDNT !!  I PAID FOR 2 NIGHTS AND STAYED 1 AND HAD TO GO PAY FOR ANOTHER ROOM !! I REFUSE TO STAY THERE AGAIN AND I WOULD NOT RECOMMEND THIS MOTEL TO ANYONE !!!MoreShow less</t>
+  </si>
+  <si>
+    <t>SOOO, I was in Dallas for the state fair the weekend of 10-5 thur 10-7 !! The room was nasty and sheets were dirty !! When i went to the front for new sheets the lady told me she couldnt get into the housingkeeping room !! OK , then when we woke up we didnt have any toilet paper soo once again i walk to the office and asked for some, lady behind the counter stated the manager didnt order any so they were out !! NOT ONLY DID WE HAVE DIRTY SHEETES NOW NO TOILET PAPER, WHEN I ASKED FOR A REFUND, SHE SAID SHE COULDNT !!  I PAID FOR 2 NIGHTS AND STAYED 1 AND HAD TO GO PAY FOR ANOTHER ROOM !! I REFUSE TO STAY THERE AGAIN AND I WOULD NOT RECOMMEND THIS MOTEL TO ANYONE !!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r142176265-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>142176265</t>
+  </si>
+  <si>
+    <t>10/06/2012</t>
+  </si>
+  <si>
+    <t>"Excellent Hotel"</t>
+  </si>
+  <si>
+    <t>I always stay at this hotel whenever I am in Dallas area. The room and the rest of the hotel were very clean and well-maintained. The breakfast was very nice and had a very good selection of items. The staff is very helpful. The hotel location is very convenient. I would recommend this hotel to everyone. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Karnail S, General Manager at Red Roof Inn Dallas-Richardson, responded to this reviewResponded October 25, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2012</t>
+  </si>
+  <si>
+    <t>I always stay at this hotel whenever I am in Dallas area. The room and the rest of the hotel were very clean and well-maintained. The breakfast was very nice and had a very good selection of items. The staff is very helpful. The hotel location is very convenient. I would recommend this hotel to everyone. I would stay here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r140123487-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
@@ -997,9 +1403,6 @@
     <t>August 2012</t>
   </si>
   <si>
-    <t>Maria C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r140122439-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1018,9 +1421,6 @@
     <t>I am very pleased with my stay at Red Roof Inn. It has great and clean rooms and the workers at the front desk are always in a great mood! The front staff is always ready for any concerns. If you don't have Internet on your computer or other devices and your trying to get somewhere where there's wi-fi , you don't have to! That's another great thing , there's free wi-fi! If you run out of goodies or food just know that Red Roof Inn is close to Walmart too , and restaurants where you can have meetings with your bosses or co-workers. You can invite your family and have a nice dinner at one of the close by restaurants and don't have to worry about going anywhere far at all. I enjoyed my stay there , and if I did I am one-hundred you will too.More</t>
   </si>
   <si>
-    <t>Wrytr</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r132073085-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1042,7 +1442,37 @@
     <t>I don't understand how anyone would think this hotel has been remodeled--it hasn't! Trust me--I'm a frequent guest at Red Roof Inns (RediCard holder) and I appreciate the many hotels they've remodeled recently--Laredo, Oklahoma City, Kansas City and others. But somehow the Dallas-Richardson location got left out of the funding pool. I asked for a nonsmoking room and was given a room that smelled sickeningly sweet, which I figured was to cover up dog odor, as the chain does allow dogs in the rooms. Gradually I realized the smell was an overdose of air freshener designed to cover up the smoke smell that grew stronger throughout the night until my skin was itching head to toe, my throat sweling, my eyes watering and my nose running. I couldn't sleep. I couldn't go barefoot either--the carpet was filthy. At 6am I went to the lobby for "breakfast"--a scant offering of leftover Entenman's rolls and soggy mini-muffins, with half a container of separated orange juice (also leftover, I presume), three cereals and a bit of milk, and half a carafe of coffee for the large number of guests who had checked in. There were apples, too. But the hotel is so dirty that I didn't want to touch anything not in a package, which meant no breakfast. When I got back to the room, the smoke smell was overwhelming. Then I remembered that I hadn't charged my cell phone, so I pulled...I don't understand how anyone would think this hotel has been remodeled--it hasn't! Trust me--I'm a frequent guest at Red Roof Inns (RediCard holder) and I appreciate the many hotels they've remodeled recently--Laredo, Oklahoma City, Kansas City and others. But somehow the Dallas-Richardson location got left out of the funding pool. I asked for a nonsmoking room and was given a room that smelled sickeningly sweet, which I figured was to cover up dog odor, as the chain does allow dogs in the rooms. Gradually I realized the smell was an overdose of air freshener designed to cover up the smoke smell that grew stronger throughout the night until my skin was itching head to toe, my throat sweling, my eyes watering and my nose running. I couldn't sleep. I couldn't go barefoot either--the carpet was filthy. At 6am I went to the lobby for "breakfast"--a scant offering of leftover Entenman's rolls and soggy mini-muffins, with half a container of separated orange juice (also leftover, I presume), three cereals and a bit of milk, and half a carafe of coffee for the large number of guests who had checked in. There were apples, too. But the hotel is so dirty that I didn't want to touch anything not in a package, which meant no breakfast. When I got back to the room, the smoke smell was overwhelming. Then I remembered that I hadn't charged my cell phone, so I pulled the night stand away from the wall to see if there was an outlet behind it. There was--along with a bunch of trash and a cigarette butt crushed into the carpet. Since I hadn't slept and checkout was at noon, I tried once more (they do have good blackout drapes) and managed to oversleep my alarm. I woke up at 12:06. Right away I called the front desk to ask for late checkout. "You can have until 12:30," the clerk said, and hung up. Apparently she forgot to tell the housekeeping staff, because they began pounding on my door and yelling for me to get out, and they continued throughout my very quick shower. I called back to the through the locked door, "Tengo permiso quedar hasta las doce y media"--"I have permission to stay until 12:30." Just as I was walking from the shower to the sink, completely naked, I heard more pounding and a man's voice tell me to get out. Then the man unlocked the door and pushed it open. I grabbed a hand towel and yelled, "Shut the door and go away or I will call the police." The man walked away, leaving the door open. I scrambled to shut and lock it, and since I could see they would not respect my late checkout time, and that they were able to unlock and open my door even with the security latch on, I didn't bother to dry off--just pulled my clothes on, threw my stuff into my bag and got out at 12:32. I went to the front desk to complain and to ask for my money back. The desk clerk was sympathetic and called the manager, Ginga, or something like that. She said there was nothing she could do. I had paid in cash and they refused to do anything to compensate for my horrible, smoky, sleepless night, the non-breakfast, and the abusive housekeeping staff. I have filed a report with Red Roof Inns and we will see if anything gets done. I would not stay at this particular Red Roof again--at least not until they remodel. Oh--by the way, as I was checking in, a guest came to the front desk asking for a vacuum cleaner. Later I saw him returning it and he said his room was jumping with fleas and he had vacuumed them up. The hotel didn't get him a different room--they just let him vacuum the fleas! Service doesn't get much worse than that. I agree that Brenda at the front desk, and a manager named Maria, are both very polite and professional but they both were ineffective at getting me any sort of restitution.More</t>
   </si>
   <si>
-    <t>Alicia G</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r131974744-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>131974744</t>
+  </si>
+  <si>
+    <t>06/14/2012</t>
+  </si>
+  <si>
+    <t>A Great Escape</t>
+  </si>
+  <si>
+    <t>I have been very pleased with my stay. I have stayed here in the past when the management was different and was treated terribly. I had decided never to return, however, since I am a Redicard member I wanted to use my reward certificates and decided to give them one more chance. I am glad that I did. This stay turned into an extended one. My room is large enough to accommodate all of my things and it has a feeling of home. The front desk staff is very delightful and helpful. Any issues that I have they are always ready and willing to assist me. You won't be disappointed with your stay. Highly recommend the business king room. The rates are reasonable, they offer free wi-fi and it is conveniently located. Shenikwa S.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>I have been very pleased with my stay. I have stayed here in the past when the management was different and was treated terribly. I had decided never to return, however, since I am a Redicard member I wanted to use my reward certificates and decided to give them one more chance. I am glad that I did. This stay turned into an extended one. My room is large enough to accommodate all of my things and it has a feeling of home. The front desk staff is very delightful and helpful. Any issues that I have they are always ready and willing to assist me. You won't be disappointed with your stay. Highly recommend the business king room. The rates are reasonable, they offer free wi-fi and it is conveniently located. Shenikwa S.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r131957727-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>131957727</t>
+  </si>
+  <si>
+    <t>REd Roof Inn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Found a "crack pipe" (similar to a test tube)  above the door in restroom. Obviously the cleaning crew missed this. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r131352539-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
@@ -1060,9 +1490,6 @@
     <t>I had a Spectacular stay! I've been there a couple of times before and always been treated great. First of all i arrived and was greeted kindly and helped with everything i needed and asked for, by the receptionist named Brenda. I arrived to a clean room,clean restroom clean pool, everything was great. They had a complimentary breakfast along with the stay, free wifi which was fast speed and great room service. They have many different restaurants and stores close by which helps alot, saves gas and time,its a great location.Hopefully ill be able to stay there again soon.</t>
   </si>
   <si>
-    <t>Norma C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r131217245-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1078,9 +1505,6 @@
     <t>I had a wonderful stay at this Reroof Inn in Richardson. They have done extensive renovation in the hotel. The hotel rooms are very nice and comfortable. Hotel staff is very professional and helpful. While our staying there my Husband got sick because of his poor health. The staff at the front was so helpful by finding nearest clinic and made an appointment for us. Hotel has Wal-Mart at very next door walk in distance which is really convenant.They have very nice continental breakfast also. I will definitely stay at this Hotel on my next Trip there.</t>
   </si>
   <si>
-    <t>garyjohnston</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r125815373-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1099,7 +1523,37 @@
     <t>March 2012</t>
   </si>
   <si>
-    <t>Theresa74</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r125661873-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>125661873</t>
+  </si>
+  <si>
+    <t>03/05/2012</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!</t>
+  </si>
+  <si>
+    <t>was in town for 3 days to run a booth at the North Texas Irish Festival.  Made the reservation 2 days before arriving, even called en route to confirm and get an email...Nothing was sent.  Arrived, they had lost the reservation...then we had reserved another room for a 2nd party, done it at the front desk with the clerk...went to the fest, ran the booth for 15hrs, came back to check in the 2nd party, again, they had no reservation!  the 2nd party had to share the room I was in!, then while at the festival, we left our belongings in the room, got back that evening, everything was stolen! Plus a used condom was laying on the BED when we walked in! NASTY!MoreShow less</t>
+  </si>
+  <si>
+    <t>was in town for 3 days to run a booth at the North Texas Irish Festival.  Made the reservation 2 days before arriving, even called en route to confirm and get an email...Nothing was sent.  Arrived, they had lost the reservation...then we had reserved another room for a 2nd party, done it at the front desk with the clerk...went to the fest, ran the booth for 15hrs, came back to check in the 2nd party, again, they had no reservation!  the 2nd party had to share the room I was in!, then while at the festival, we left our belongings in the room, got back that evening, everything was stolen! Plus a used condom was laying on the BED when we walked in! NASTY!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r119826354-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>119826354</t>
+  </si>
+  <si>
+    <t>10/28/2011</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>I Stayed in this hotel recently.i really enjoy my stay.room was really nice and clean.The bed was great.also they served good breakfast. Internet was working great.front staff was helpfull and also proffesional.Outside property clean.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r113106521-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
@@ -1139,9 +1593,6 @@
   </si>
   <si>
     <t>March 2011</t>
-  </si>
-  <si>
-    <t>Tarfnar</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d99375-r97616778-Red_Roof_Inn_Dallas_Richardson-Dallas_Texas.html</t>
@@ -1667,311 +2118,303 @@
       <c r="A2" t="n">
         <v>5195</v>
       </c>
-      <c r="B2" t="n">
-        <v>175010</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>4</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5195</v>
       </c>
-      <c r="B3" t="n">
-        <v>175011</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5195</v>
       </c>
-      <c r="B4" t="n">
-        <v>2192</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5195</v>
       </c>
-      <c r="B5" t="n">
-        <v>2379</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5195</v>
       </c>
-      <c r="B6" t="n">
-        <v>175012</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
         <v>77</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>78</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>79</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>80</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>81</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>82</v>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>83</v>
-      </c>
       <c r="O6" t="s">
-        <v>68</v>
-      </c>
-      <c r="P6" t="n">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
         <v>2</v>
       </c>
-      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1979,54 +2422,50 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5195</v>
       </c>
-      <c r="B7" t="n">
-        <v>175013</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
         <v>86</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>87</v>
       </c>
-      <c r="J7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L7" t="s">
-        <v>90</v>
-      </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="O7" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2040,186 +2479,164 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5195</v>
       </c>
-      <c r="B8" t="n">
-        <v>34093</v>
-      </c>
-      <c r="C8" t="s">
-        <v>92</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>93</v>
       </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8" t="s">
-        <v>95</v>
-      </c>
-      <c r="K8" t="s">
-        <v>96</v>
-      </c>
-      <c r="L8" t="s">
-        <v>97</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3</v>
-      </c>
-      <c r="N8" t="s">
-        <v>98</v>
-      </c>
       <c r="O8" t="s">
-        <v>76</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>4</v>
-      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>2</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5195</v>
       </c>
-      <c r="B9" t="n">
-        <v>175014</v>
-      </c>
-      <c r="C9" t="s">
-        <v>100</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="O9" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>4</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5195</v>
       </c>
-      <c r="B10" t="n">
-        <v>103927</v>
-      </c>
-      <c r="C10" t="s">
-        <v>107</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="O10" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2233,64 +2650,60 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5195</v>
       </c>
-      <c r="B11" t="n">
-        <v>38416</v>
-      </c>
-      <c r="C11" t="s">
-        <v>115</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="J11" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="O11" t="s">
-        <v>91</v>
-      </c>
-      <c r="P11" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>2</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -2298,54 +2711,50 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5195</v>
       </c>
-      <c r="B12" t="n">
-        <v>175015</v>
-      </c>
-      <c r="C12" t="s">
-        <v>122</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="J12" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="O12" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2359,115 +2768,111 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5195</v>
       </c>
-      <c r="B13" t="n">
-        <v>101601</v>
-      </c>
-      <c r="C13" t="s">
-        <v>129</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="O13" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>5195</v>
       </c>
-      <c r="B14" t="n">
-        <v>152628</v>
-      </c>
-      <c r="C14" t="s">
-        <v>136</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="J14" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="K14" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="O14" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2481,61 +2886,57 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>5195</v>
       </c>
-      <c r="B15" t="n">
-        <v>175016</v>
-      </c>
-      <c r="C15" t="s">
-        <v>143</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="K15" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="O15" t="s">
-        <v>76</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
@@ -2548,66 +2949,60 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>5195</v>
       </c>
-      <c r="B16" t="n">
-        <v>44494</v>
-      </c>
-      <c r="C16" t="s">
-        <v>151</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="J16" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="K16" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="L16" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
         <v>4</v>
       </c>
-      <c r="R16" t="n">
-        <v>3</v>
-      </c>
+      <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2615,273 +3010,241 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>5195</v>
       </c>
-      <c r="B17" t="n">
-        <v>175017</v>
-      </c>
-      <c r="C17" t="s">
-        <v>159</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="J17" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="K17" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="L17" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="O17" t="s">
-        <v>54</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>5195</v>
       </c>
-      <c r="B18" t="n">
-        <v>175018</v>
-      </c>
-      <c r="C18" t="s">
-        <v>167</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="J18" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="K18" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="L18" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="O18" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>173</v>
-      </c>
-      <c r="X18" t="s">
-        <v>174</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>5195</v>
       </c>
-      <c r="B19" t="n">
-        <v>175019</v>
-      </c>
-      <c r="C19" t="s">
-        <v>176</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="J19" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="K19" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="L19" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>137</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>173</v>
-      </c>
-      <c r="X19" t="s">
-        <v>174</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>5195</v>
       </c>
-      <c r="B20" t="n">
-        <v>175020</v>
-      </c>
-      <c r="C20" t="s">
-        <v>182</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="J20" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="K20" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="L20" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="O20" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>3</v>
-      </c>
+      <c r="R20" t="s"/>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2889,188 +3252,164 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>5195</v>
       </c>
-      <c r="B21" t="n">
-        <v>70122</v>
-      </c>
-      <c r="C21" t="s">
-        <v>189</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="J21" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="K21" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="L21" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="O21" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="n">
-        <v>3</v>
-      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>3</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>5195</v>
       </c>
-      <c r="B22" t="n">
-        <v>175021</v>
-      </c>
-      <c r="C22" t="s">
-        <v>196</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="J22" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="K22" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="L22" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="O22" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="n">
-        <v>3</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1</v>
-      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>1</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>5195</v>
       </c>
-      <c r="B23" t="n">
-        <v>175022</v>
-      </c>
-      <c r="C23" t="s">
-        <v>203</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="J23" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="K23" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="L23" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="O23" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3084,483 +3423,415 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>5195</v>
       </c>
-      <c r="B24" t="n">
-        <v>175023</v>
-      </c>
-      <c r="C24" t="s">
-        <v>210</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="J24" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="K24" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="L24" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="O24" t="s">
-        <v>54</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" t="n">
-        <v>3</v>
-      </c>
-      <c r="S24" t="n">
-        <v>4</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>3</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>5195</v>
       </c>
-      <c r="B25" t="n">
-        <v>2993</v>
-      </c>
-      <c r="C25" t="s">
-        <v>218</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="J25" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="K25" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="L25" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="O25" t="s">
-        <v>54</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>4</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>3</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>5195</v>
       </c>
-      <c r="B26" t="n">
-        <v>175024</v>
-      </c>
-      <c r="C26" t="s">
-        <v>225</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="J26" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="K26" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="L26" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="O26" t="s">
-        <v>232</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>233</v>
-      </c>
-      <c r="X26" t="s">
-        <v>234</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>5195</v>
       </c>
-      <c r="B27" t="n">
-        <v>175025</v>
-      </c>
-      <c r="C27" t="s">
-        <v>236</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="J27" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="K27" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="L27" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
-      </c>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>208</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>5195</v>
       </c>
-      <c r="B28" t="n">
-        <v>15000</v>
-      </c>
-      <c r="C28" t="s">
-        <v>242</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="J28" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="K28" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="L28" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="O28" t="s">
-        <v>54</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>4</v>
-      </c>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>216</v>
+      </c>
+      <c r="X28" t="s">
+        <v>217</v>
+      </c>
       <c r="Y28" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>5195</v>
       </c>
-      <c r="B29" t="n">
-        <v>175026</v>
-      </c>
-      <c r="C29" t="s">
-        <v>248</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="J29" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="K29" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="L29" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
-      </c>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>3</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>224</v>
+      </c>
+      <c r="O29" t="s">
+        <v>124</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>4</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>254</v>
-      </c>
-      <c r="X29" t="s">
-        <v>255</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>5195</v>
       </c>
-      <c r="B30" t="n">
-        <v>175027</v>
-      </c>
-      <c r="C30" t="s">
-        <v>257</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="J30" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="K30" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="L30" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="O30" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
         <v>5</v>
@@ -3568,144 +3839,128 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>254</v>
-      </c>
-      <c r="X30" t="s">
-        <v>255</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>5195</v>
       </c>
-      <c r="B31" t="n">
-        <v>44494</v>
-      </c>
-      <c r="C31" t="s">
-        <v>151</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="J31" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="K31" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="L31" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="O31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
       <c r="R31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>236</v>
+      </c>
+      <c r="X31" t="s">
+        <v>237</v>
+      </c>
       <c r="Y31" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>5195</v>
       </c>
-      <c r="B32" t="n">
-        <v>2559</v>
-      </c>
-      <c r="C32" t="s">
-        <v>271</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="J32" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="K32" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="L32" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
-      <c r="N32" t="s">
-        <v>277</v>
-      </c>
-      <c r="O32" t="s">
-        <v>76</v>
-      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
       <c r="P32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
       </c>
       <c r="R32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
@@ -3714,73 +3969,67 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>236</v>
+      </c>
+      <c r="X32" t="s">
+        <v>237</v>
+      </c>
       <c r="Y32" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>5195</v>
       </c>
-      <c r="B33" t="n">
-        <v>175028</v>
-      </c>
-      <c r="C33" t="s">
-        <v>278</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="J33" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="K33" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="L33" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>284</v>
+        <v>224</v>
       </c>
       <c r="O33" t="s">
-        <v>68</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
       <c r="R33" t="n">
-        <v>4</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3788,145 +4037,119 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>5195</v>
       </c>
-      <c r="B34" t="n">
-        <v>44494</v>
-      </c>
-      <c r="C34" t="s">
-        <v>151</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="J34" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="K34" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="L34" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="O34" t="s">
-        <v>54</v>
-      </c>
-      <c r="P34" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>4</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2</v>
-      </c>
-      <c r="S34" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s">
-        <v>292</v>
-      </c>
-      <c r="X34" t="s">
-        <v>293</v>
-      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>5195</v>
       </c>
-      <c r="B35" t="n">
-        <v>2768</v>
-      </c>
-      <c r="C35" t="s">
-        <v>295</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="J35" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="K35" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="L35" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="M35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="O35" t="s">
-        <v>54</v>
-      </c>
-      <c r="P35" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
       <c r="R35" t="n">
         <v>3</v>
       </c>
       <c r="S35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3934,141 +4157,125 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>5195</v>
       </c>
-      <c r="B36" t="n">
-        <v>175029</v>
-      </c>
-      <c r="C36" t="s">
-        <v>302</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="J36" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="K36" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="L36" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
-      </c>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>266</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
       <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R36" t="s"/>
       <c r="S36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>308</v>
-      </c>
-      <c r="X36" t="s">
-        <v>309</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>5195</v>
       </c>
-      <c r="B37" t="n">
-        <v>175030</v>
-      </c>
-      <c r="C37" t="s">
-        <v>311</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="J37" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="K37" t="s">
-        <v>315</v>
+        <v>115</v>
       </c>
       <c r="L37" t="s">
-        <v>316</v>
+        <v>270</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="O37" t="s">
-        <v>76</v>
-      </c>
-      <c r="P37" t="n">
+        <v>117</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
         <v>3</v>
       </c>
-      <c r="Q37" t="n">
-        <v>3</v>
-      </c>
-      <c r="R37" t="n">
-        <v>4</v>
-      </c>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -4076,125 +4283,107 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>5195</v>
       </c>
-      <c r="B38" t="n">
-        <v>2053</v>
-      </c>
-      <c r="C38" t="s">
-        <v>318</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>320</v>
+        <v>274</v>
       </c>
       <c r="J38" t="s">
-        <v>321</v>
+        <v>275</v>
       </c>
       <c r="K38" t="s">
-        <v>322</v>
+        <v>276</v>
       </c>
       <c r="L38" t="s">
-        <v>323</v>
+        <v>277</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="O38" t="s">
-        <v>76</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>5</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>323</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>5195</v>
       </c>
-      <c r="B39" t="n">
-        <v>6537</v>
-      </c>
-      <c r="C39" t="s">
-        <v>325</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>326</v>
+        <v>279</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="J39" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="K39" t="s">
-        <v>328</v>
+        <v>282</v>
       </c>
       <c r="L39" t="s">
-        <v>329</v>
+        <v>283</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>330</v>
+        <v>284</v>
       </c>
       <c r="O39" t="s">
-        <v>232</v>
+        <v>60</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4202,12 +4391,8 @@
       <c r="Q39" t="n">
         <v>5</v>
       </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
         <v>5</v>
@@ -4218,141 +4403,123 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>5195</v>
       </c>
-      <c r="B40" t="n">
-        <v>175031</v>
-      </c>
-      <c r="C40" t="s">
-        <v>332</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>334</v>
+        <v>286</v>
       </c>
       <c r="J40" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="K40" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="L40" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
       <c r="M40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="O40" t="s">
-        <v>91</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1</v>
-      </c>
-      <c r="R40" t="n">
-        <v>3</v>
-      </c>
-      <c r="S40" t="n">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>1</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>339</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>5195</v>
       </c>
-      <c r="B41" t="n">
-        <v>55661</v>
-      </c>
-      <c r="C41" t="s">
-        <v>340</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>341</v>
+        <v>291</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>342</v>
+        <v>292</v>
       </c>
       <c r="J41" t="s">
-        <v>343</v>
+        <v>293</v>
       </c>
       <c r="K41" t="s">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="L41" t="s">
-        <v>345</v>
+        <v>295</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="O41" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
       </c>
       <c r="Q41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -4360,70 +4527,66 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>345</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>5195</v>
       </c>
-      <c r="B42" t="n">
-        <v>114679</v>
-      </c>
-      <c r="C42" t="s">
-        <v>346</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="J42" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="K42" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="L42" t="s">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="O42" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="P42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -4431,131 +4594,113 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>351</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>5195</v>
       </c>
-      <c r="B43" t="n">
-        <v>175032</v>
-      </c>
-      <c r="C43" t="s">
-        <v>352</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="J43" t="s">
-        <v>355</v>
+        <v>300</v>
       </c>
       <c r="K43" t="s">
-        <v>356</v>
+        <v>306</v>
       </c>
       <c r="L43" t="s">
-        <v>357</v>
+        <v>307</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>358</v>
+        <v>296</v>
       </c>
       <c r="O43" t="s">
-        <v>91</v>
-      </c>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>5</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>357</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>5195</v>
       </c>
-      <c r="B44" t="n">
-        <v>175033</v>
-      </c>
-      <c r="C44" t="s">
-        <v>359</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>360</v>
+        <v>308</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>361</v>
+        <v>309</v>
       </c>
       <c r="J44" t="s">
-        <v>362</v>
+        <v>310</v>
       </c>
       <c r="K44" t="s">
-        <v>363</v>
+        <v>311</v>
       </c>
       <c r="L44" t="s">
-        <v>364</v>
+        <v>312</v>
       </c>
       <c r="M44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>365</v>
+        <v>313</v>
       </c>
       <c r="O44" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R44" t="n">
         <v>5</v>
@@ -4565,71 +4710,71 @@
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>314</v>
+      </c>
+      <c r="X44" t="s">
+        <v>315</v>
+      </c>
       <c r="Y44" t="s">
-        <v>366</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>5195</v>
       </c>
-      <c r="B45" t="n">
-        <v>175031</v>
-      </c>
-      <c r="C45" t="s">
-        <v>352</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>367</v>
+        <v>317</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="J45" t="s">
-        <v>369</v>
+        <v>319</v>
       </c>
       <c r="K45" t="s">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="L45" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>372</v>
+        <v>313</v>
       </c>
       <c r="O45" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="P45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q45" t="n">
         <v>5</v>
       </c>
       <c r="R45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -4641,81 +4786,2156 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>322</v>
+      </c>
+      <c r="X45" t="s">
+        <v>323</v>
+      </c>
       <c r="Y45" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>5195</v>
       </c>
-      <c r="B46" t="n">
-        <v>175034</v>
-      </c>
-      <c r="C46" t="s">
-        <v>373</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>374</v>
+        <v>325</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
       <c r="J46" t="s">
-        <v>376</v>
+        <v>327</v>
       </c>
       <c r="K46" t="s">
-        <v>377</v>
+        <v>328</v>
       </c>
       <c r="L46" t="s">
-        <v>378</v>
+        <v>329</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="s">
-        <v>379</v>
-      </c>
-      <c r="O46" t="s">
-        <v>54</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1</v>
-      </c>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>1</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>330</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>331</v>
+      </c>
+      <c r="J47" t="s">
+        <v>332</v>
+      </c>
+      <c r="K47" t="s">
+        <v>333</v>
+      </c>
+      <c r="L47" t="s">
+        <v>334</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>313</v>
+      </c>
+      <c r="O47" t="s">
+        <v>60</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>335</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>336</v>
+      </c>
+      <c r="J48" t="s">
+        <v>337</v>
+      </c>
+      <c r="K48" t="s">
+        <v>338</v>
+      </c>
+      <c r="L48" t="s">
+        <v>339</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>313</v>
+      </c>
+      <c r="O48" t="s">
+        <v>117</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>341</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>342</v>
+      </c>
+      <c r="J49" t="s">
+        <v>343</v>
+      </c>
+      <c r="K49" t="s">
+        <v>344</v>
+      </c>
+      <c r="L49" t="s">
+        <v>345</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>346</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>348</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>349</v>
+      </c>
+      <c r="J50" t="s">
+        <v>350</v>
+      </c>
+      <c r="K50" t="s">
+        <v>351</v>
+      </c>
+      <c r="L50" t="s">
+        <v>352</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>353</v>
+      </c>
+      <c r="X50" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>356</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>357</v>
+      </c>
+      <c r="J51" t="s">
+        <v>358</v>
+      </c>
+      <c r="K51" t="s">
+        <v>359</v>
+      </c>
+      <c r="L51" t="s">
+        <v>360</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>361</v>
+      </c>
+      <c r="O51" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>353</v>
+      </c>
+      <c r="X51" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>363</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>364</v>
+      </c>
+      <c r="J52" t="s">
+        <v>365</v>
+      </c>
+      <c r="K52" t="s">
+        <v>366</v>
+      </c>
+      <c r="L52" t="s">
+        <v>367</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>368</v>
+      </c>
+      <c r="O52" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>369</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>370</v>
+      </c>
+      <c r="J53" t="s">
+        <v>371</v>
+      </c>
+      <c r="K53" t="s">
+        <v>372</v>
+      </c>
+      <c r="L53" t="s">
+        <v>373</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>374</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>375</v>
+      </c>
+      <c r="J54" t="s">
+        <v>376</v>
+      </c>
+      <c r="K54" t="s">
+        <v>377</v>
+      </c>
+      <c r="L54" t="s">
+        <v>378</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>379</v>
+      </c>
+      <c r="O54" t="s">
+        <v>117</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
         <v>380</v>
+      </c>
+      <c r="X54" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>383</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>384</v>
+      </c>
+      <c r="J55" t="s">
+        <v>385</v>
+      </c>
+      <c r="K55" t="s">
+        <v>386</v>
+      </c>
+      <c r="L55" t="s">
+        <v>387</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>388</v>
+      </c>
+      <c r="O55" t="s">
+        <v>69</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>389</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>390</v>
+      </c>
+      <c r="J56" t="s">
+        <v>391</v>
+      </c>
+      <c r="K56" t="s">
+        <v>392</v>
+      </c>
+      <c r="L56" t="s">
+        <v>393</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>394</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>396</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>397</v>
+      </c>
+      <c r="J57" t="s">
+        <v>398</v>
+      </c>
+      <c r="K57" t="s">
+        <v>399</v>
+      </c>
+      <c r="L57" t="s">
+        <v>400</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>401</v>
+      </c>
+      <c r="O57" t="s">
+        <v>60</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>402</v>
+      </c>
+      <c r="X57" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>405</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>406</v>
+      </c>
+      <c r="J58" t="s">
+        <v>407</v>
+      </c>
+      <c r="K58" t="s">
+        <v>408</v>
+      </c>
+      <c r="L58" t="s">
+        <v>409</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>410</v>
+      </c>
+      <c r="X58" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>413</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>414</v>
+      </c>
+      <c r="J59" t="s">
+        <v>415</v>
+      </c>
+      <c r="K59" t="s">
+        <v>416</v>
+      </c>
+      <c r="L59" t="s">
+        <v>417</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>418</v>
+      </c>
+      <c r="O59" t="s">
+        <v>60</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>420</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>421</v>
+      </c>
+      <c r="J60" t="s">
+        <v>422</v>
+      </c>
+      <c r="K60" t="s">
+        <v>423</v>
+      </c>
+      <c r="L60" t="s">
+        <v>424</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>418</v>
+      </c>
+      <c r="O60" t="s">
+        <v>60</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>425</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>426</v>
+      </c>
+      <c r="J61" t="s">
+        <v>427</v>
+      </c>
+      <c r="K61" t="s">
+        <v>428</v>
+      </c>
+      <c r="L61" t="s">
+        <v>429</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>430</v>
+      </c>
+      <c r="X61" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>433</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>434</v>
+      </c>
+      <c r="J62" t="s">
+        <v>435</v>
+      </c>
+      <c r="K62" t="s">
+        <v>436</v>
+      </c>
+      <c r="L62" t="s">
+        <v>437</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>438</v>
+      </c>
+      <c r="O62" t="s">
+        <v>69</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>439</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>440</v>
+      </c>
+      <c r="J63" t="s">
+        <v>441</v>
+      </c>
+      <c r="K63" t="s">
+        <v>442</v>
+      </c>
+      <c r="L63" t="s">
+        <v>443</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>379</v>
+      </c>
+      <c r="O63" t="s">
+        <v>69</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>445</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>446</v>
+      </c>
+      <c r="J64" t="s">
+        <v>447</v>
+      </c>
+      <c r="K64" t="s">
+        <v>448</v>
+      </c>
+      <c r="L64" t="s">
+        <v>449</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>450</v>
+      </c>
+      <c r="O64" t="s">
+        <v>69</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>451</v>
+      </c>
+      <c r="X64" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>454</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>455</v>
+      </c>
+      <c r="J65" t="s">
+        <v>456</v>
+      </c>
+      <c r="K65" t="s">
+        <v>457</v>
+      </c>
+      <c r="L65" t="s">
+        <v>458</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>459</v>
+      </c>
+      <c r="O65" t="s">
+        <v>69</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>460</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>461</v>
+      </c>
+      <c r="J66" t="s">
+        <v>456</v>
+      </c>
+      <c r="K66" t="s">
+        <v>462</v>
+      </c>
+      <c r="L66" t="s">
+        <v>463</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>464</v>
+      </c>
+      <c r="O66" t="s">
+        <v>124</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>466</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>467</v>
+      </c>
+      <c r="J67" t="s">
+        <v>468</v>
+      </c>
+      <c r="K67" t="s">
+        <v>469</v>
+      </c>
+      <c r="L67" t="s">
+        <v>470</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s">
+        <v>471</v>
+      </c>
+      <c r="O67" t="s">
+        <v>117</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>473</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>474</v>
+      </c>
+      <c r="J68" t="s">
+        <v>475</v>
+      </c>
+      <c r="K68" t="s">
+        <v>476</v>
+      </c>
+      <c r="L68" t="s">
+        <v>477</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>478</v>
+      </c>
+      <c r="O68" t="s">
+        <v>117</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>480</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>481</v>
+      </c>
+      <c r="J69" t="s">
+        <v>475</v>
+      </c>
+      <c r="K69" t="s">
+        <v>482</v>
+      </c>
+      <c r="L69" t="s">
+        <v>483</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>464</v>
+      </c>
+      <c r="O69" t="s">
+        <v>69</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>484</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>485</v>
+      </c>
+      <c r="J70" t="s">
+        <v>486</v>
+      </c>
+      <c r="K70" t="s">
+        <v>487</v>
+      </c>
+      <c r="L70" t="s">
+        <v>488</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>471</v>
+      </c>
+      <c r="O70" t="s">
+        <v>69</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>489</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>490</v>
+      </c>
+      <c r="J71" t="s">
+        <v>491</v>
+      </c>
+      <c r="K71" t="s">
+        <v>492</v>
+      </c>
+      <c r="L71" t="s">
+        <v>493</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>464</v>
+      </c>
+      <c r="O71" t="s">
+        <v>69</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>494</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>495</v>
+      </c>
+      <c r="J72" t="s">
+        <v>496</v>
+      </c>
+      <c r="K72" t="s">
+        <v>497</v>
+      </c>
+      <c r="L72" t="s">
+        <v>498</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>499</v>
+      </c>
+      <c r="O72" t="s">
+        <v>117</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>500</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>501</v>
+      </c>
+      <c r="J73" t="s">
+        <v>502</v>
+      </c>
+      <c r="K73" t="s">
+        <v>503</v>
+      </c>
+      <c r="L73" t="s">
+        <v>504</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>499</v>
+      </c>
+      <c r="O73" t="s">
+        <v>60</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>506</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>507</v>
+      </c>
+      <c r="J74" t="s">
+        <v>508</v>
+      </c>
+      <c r="K74" t="s">
+        <v>509</v>
+      </c>
+      <c r="L74" t="s">
+        <v>510</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>478</v>
+      </c>
+      <c r="O74" t="s">
+        <v>69</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>511</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>512</v>
+      </c>
+      <c r="J75" t="s">
+        <v>513</v>
+      </c>
+      <c r="K75" t="s">
+        <v>514</v>
+      </c>
+      <c r="L75" t="s">
+        <v>515</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="s">
+        <v>516</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>2</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>518</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>519</v>
+      </c>
+      <c r="J76" t="s">
+        <v>520</v>
+      </c>
+      <c r="K76" t="s">
+        <v>521</v>
+      </c>
+      <c r="L76" t="s">
+        <v>522</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>523</v>
+      </c>
+      <c r="O76" t="s">
+        <v>60</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>524</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>525</v>
+      </c>
+      <c r="J77" t="s">
+        <v>526</v>
+      </c>
+      <c r="K77" t="s">
+        <v>527</v>
+      </c>
+      <c r="L77" t="s">
+        <v>528</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>529</v>
+      </c>
+      <c r="O77" t="s">
+        <v>60</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>2</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>530</v>
       </c>
     </row>
   </sheetData>
